--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -4,25 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="26360" windowHeight="18040" tabRatio="883"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId2"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId3"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId4"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId5"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId6"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId7"/>
+    <sheet name="terrainStyle" sheetId="31" r:id="rId2"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId3"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId4"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId5"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId6"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId7"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="87">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -287,6 +292,74 @@
     <t>decorate_tree_9</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_style</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLand_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLand_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLand_3</t>
+  </si>
+  <si>
+    <t>grassLand_4</t>
+  </si>
+  <si>
+    <t>grassLand_5</t>
+  </si>
+  <si>
+    <t>grassLand_6</t>
+  </si>
+  <si>
+    <t>desert_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert_3</t>
+  </si>
+  <si>
+    <t>desert_4</t>
+  </si>
+  <si>
+    <t>desert_5</t>
+  </si>
+  <si>
+    <t>desert_6</t>
+  </si>
+  <si>
+    <t>iceField_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceField_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceField_3</t>
+  </si>
+  <si>
+    <t>iceField_4</t>
+  </si>
+  <si>
+    <t>iceField_5</t>
+  </si>
+  <si>
+    <t>iceField_6</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1825">
+  <cellStyleXfs count="1835">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2257,6 +2330,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2290,7 +2373,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1825">
+  <cellStyles count="1835">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3205,6 +3288,11 @@
     <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1821" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1833" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4112,6 +4200,11 @@
     <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1822" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1834" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -4564,7 +4657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5108,6 +5201,359 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="C24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="C26" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -8787,7 +9233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -12468,7 +12914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -16148,7 +16594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -19828,7 +20274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -23508,7 +23954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>

--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="26360" windowHeight="18040" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="88">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>decorate_lake_1</t>
-  </si>
-  <si>
-    <t>moonGate</t>
   </si>
   <si>
     <t>shrine</t>
@@ -360,6 +357,13 @@
   <si>
     <t>iceField_6</t>
   </si>
+  <si>
+    <t>watchTower</t>
+  </si>
+  <si>
+    <t>watchTower</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -504,7 +508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1835">
+  <cellStyleXfs count="1849">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2330,6 +2334,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2373,7 +2391,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1835">
+  <cellStyles count="1849">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3293,6 +3311,13 @@
     <cellStyle name="超链接" xfId="1829" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1831" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1847" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4205,6 +4230,13 @@
     <cellStyle name="访问过的超链接" xfId="1830" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1832" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1848" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -4657,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4671,21 +4703,21 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -4694,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -4706,7 +4738,7 @@
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -4715,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -4727,7 +4759,7 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4736,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -4748,7 +4780,7 @@
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4757,7 +4789,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -4769,7 +4801,7 @@
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -4778,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -4790,7 +4822,7 @@
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -4799,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -4820,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4833,7 +4865,7 @@
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -4842,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4855,7 +4887,7 @@
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -4864,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -4876,7 +4908,7 @@
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -4885,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -4897,7 +4929,7 @@
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -4906,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -4918,7 +4950,7 @@
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -4927,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -4939,7 +4971,7 @@
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -4948,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -4969,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4982,7 +5014,7 @@
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -4991,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -5013,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -5026,7 +5058,7 @@
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -5035,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5057,12 +5089,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -5071,12 +5103,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -5085,12 +5117,12 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -5099,12 +5131,12 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -5113,12 +5145,12 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -5127,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -5140,7 +5172,7 @@
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -5149,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -5162,7 +5194,7 @@
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -5171,12 +5203,12 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -5185,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -5204,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5218,16 +5250,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -5242,7 +5274,7 @@
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5257,7 +5289,7 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5272,7 +5304,7 @@
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -5287,7 +5319,7 @@
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -5302,7 +5334,7 @@
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -5317,7 +5349,7 @@
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -5333,7 +5365,7 @@
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -5349,7 +5381,7 @@
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -5365,7 +5397,7 @@
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -5381,7 +5413,7 @@
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -5397,7 +5429,7 @@
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -5413,7 +5445,7 @@
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -5429,7 +5461,7 @@
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -5446,7 +5478,7 @@
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -5463,7 +5495,7 @@
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -5480,7 +5512,7 @@
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -5497,7 +5529,7 @@
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -5557,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showRuler="0" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5569,7 +5601,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -6790,7 +6822,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" s="3">
         <v>28</v>
@@ -6972,7 +7004,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="3">
         <v>3</v>
@@ -7084,7 +7116,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3">
         <v>17</v>
@@ -7602,7 +7634,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C146" s="3">
         <v>17</v>
@@ -7966,7 +7998,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C172" s="3">
         <v>26</v>
@@ -8708,7 +8740,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C225" s="1">
         <v>12</v>
@@ -9237,8 +9269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9250,13 +9282,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -9855,7 +9887,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="3">
         <v>12</v>
@@ -10471,7 +10503,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C88" s="3">
         <v>5</v>
@@ -10905,7 +10937,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="3">
         <v>17</v>
@@ -11451,7 +11483,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C158" s="3">
         <v>17</v>
@@ -11773,7 +11805,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C181" s="3">
         <v>26</v>
@@ -11829,7 +11861,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C185" s="3">
         <v>28</v>
@@ -12165,7 +12197,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="1">
         <v>9</v>
@@ -12918,8 +12950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="H255" sqref="H255"/>
+    <sheetView showRuler="0" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12930,16 +12962,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -13241,7 +13273,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -14067,7 +14099,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" s="1">
         <v>7</v>
@@ -14501,7 +14533,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="1">
         <v>17</v>
@@ -14543,7 +14575,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116" s="1">
         <v>27</v>
@@ -15103,7 +15135,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C156" s="1">
         <v>17</v>
@@ -15453,7 +15485,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C181" s="1">
         <v>27</v>
@@ -16083,7 +16115,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" s="1">
         <v>24</v>
@@ -16598,8 +16630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView showRuler="0" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16610,16 +16642,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -17649,7 +17681,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1">
         <v>4</v>
@@ -17733,7 +17765,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1">
         <v>26</v>
@@ -18153,7 +18185,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" s="1">
         <v>17</v>
@@ -18727,7 +18759,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C152" s="1">
         <v>17</v>
@@ -18755,7 +18787,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C154" s="1">
         <v>26</v>
@@ -19133,7 +19165,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C181" s="1">
         <v>27</v>
@@ -19329,7 +19361,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C195" s="1">
         <v>7</v>
@@ -20278,8 +20310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20290,16 +20322,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -20741,7 +20773,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
         <v>26</v>
@@ -21903,7 +21935,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" s="1">
         <v>17</v>
@@ -21987,7 +22019,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -22477,7 +22509,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C157" s="1">
         <v>17</v>
@@ -22687,7 +22719,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C172" s="1">
         <v>26</v>
@@ -22813,7 +22845,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" s="1">
         <v>5</v>
@@ -23289,7 +23321,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C215" s="1">
         <v>5</v>
@@ -23958,8 +23990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showRuler="0" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -23970,16 +24002,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -25037,7 +25069,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1">
         <v>29</v>
@@ -25471,7 +25503,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108" s="1">
         <v>4</v>
@@ -25555,7 +25587,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114" s="1">
         <v>17</v>
@@ -26059,7 +26091,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C150" s="1">
         <v>17</v>
@@ -26325,7 +26357,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C169" s="1">
         <v>28</v>
@@ -26493,7 +26525,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C181" s="1">
         <v>6</v>
@@ -26941,7 +26973,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C213" s="1">
         <v>3</v>

--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="26360" windowHeight="18040" tabRatio="883"/>
+    <workbookView xWindow="3860" yWindow="820" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
     <sheet name="terrainStyle" sheetId="31" r:id="rId2"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId3"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId4"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId5"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId6"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId7"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId8"/>
+    <sheet name="buff" sheetId="32" r:id="rId3"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId4"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId5"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId6"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId7"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId8"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="110">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -364,6 +369,94 @@
     <t>watchTower</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_round</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_villageAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonExpAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_bloodAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_marchSpeedAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonStrengthAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_loyaltyAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_honourAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_monsterLevel</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_40</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33_36</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33_36</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>29_32</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>29_32</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_24</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1849">
+  <cellStyleXfs count="1873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2334,6 +2427,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2391,7 +2508,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1849">
+  <cellStyles count="1873">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3318,6 +3435,18 @@
     <cellStyle name="超链接" xfId="1843" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1845" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1871" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4237,6 +4366,18 @@
     <cellStyle name="访问过的超链接" xfId="1844" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1846" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1872" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -4689,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -5237,7 +5378,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5587,3671 +5728,730 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="5"/>
+    <col min="6" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
       </c>
       <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="I6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14</v>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>15</v>
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18</v>
       </c>
       <c r="D10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1">
         <v>16</v>
       </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
       <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>26</v>
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14</v>
       </c>
       <c r="D12" s="1">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>27</v>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5</v>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6</v>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7</v>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>8</v>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>9</v>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>14</v>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>15</v>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3">
-        <v>29</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3">
-        <v>9</v>
-      </c>
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3">
-        <v>13</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3">
-        <v>21</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3">
-        <v>25</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3">
-        <v>26</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3">
-        <v>29</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="3">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="3">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9</v>
-      </c>
-      <c r="D54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="3">
-        <v>13</v>
-      </c>
-      <c r="D58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3">
-        <v>21</v>
-      </c>
-      <c r="D60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="3">
-        <v>24</v>
-      </c>
-      <c r="D61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="3">
-        <v>25</v>
-      </c>
-      <c r="D62" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3">
-        <v>26</v>
-      </c>
-      <c r="D63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3">
-        <v>27</v>
-      </c>
-      <c r="D64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="3">
-        <v>5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="3">
-        <v>11</v>
-      </c>
-      <c r="D69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3">
-        <v>22</v>
-      </c>
-      <c r="D70" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="3">
-        <v>23</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3">
-        <v>24</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="3">
-        <v>25</v>
-      </c>
-      <c r="D73" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="3">
-        <v>26</v>
-      </c>
-      <c r="D74" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="3">
-        <v>27</v>
-      </c>
-      <c r="D75" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="3">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="3">
-        <v>4</v>
-      </c>
-      <c r="D77" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="3">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3">
-        <v>24</v>
-      </c>
-      <c r="D79" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="3">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="3">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="3">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3">
-        <v>2</v>
-      </c>
-      <c r="D85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="3">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="3">
-        <v>7</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="3">
-        <v>28</v>
-      </c>
-      <c r="D88" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="3">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="3">
-        <v>2</v>
-      </c>
-      <c r="D90" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="3">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="3">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3">
-        <v>13</v>
-      </c>
-      <c r="D93" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="3">
-        <v>14</v>
-      </c>
-      <c r="D94" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="3">
-        <v>15</v>
-      </c>
-      <c r="D95" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="3">
-        <v>16</v>
-      </c>
-      <c r="D96" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="3">
-        <v>17</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C98" s="3">
-        <v>18</v>
-      </c>
-      <c r="D98" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="3">
-        <v>27</v>
-      </c>
-      <c r="D99" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="3">
-        <v>2</v>
-      </c>
-      <c r="D100" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="3">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="3">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="3">
-        <v>5</v>
-      </c>
-      <c r="D103" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3">
-        <v>12</v>
-      </c>
-      <c r="D104" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="3">
-        <v>13</v>
-      </c>
-      <c r="D105" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="3">
-        <v>14</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="3">
-        <v>15</v>
-      </c>
-      <c r="D107" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="3">
-        <v>16</v>
-      </c>
-      <c r="D108" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="3">
-        <v>17</v>
-      </c>
-      <c r="D109" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="3">
-        <v>18</v>
-      </c>
-      <c r="D110" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1">
-      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3">
-        <v>27</v>
-      </c>
-      <c r="D111" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="3">
-        <v>28</v>
-      </c>
-      <c r="D112" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="3">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>4</v>
-      </c>
-      <c r="D114" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="3">
-        <v>5</v>
-      </c>
-      <c r="D115" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="3">
-        <v>12</v>
-      </c>
-      <c r="D116" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="3">
-        <v>13</v>
-      </c>
-      <c r="D117" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="3">
-        <v>17</v>
-      </c>
-      <c r="D118" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="3">
-        <v>18</v>
-      </c>
-      <c r="D119" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="3">
-        <v>26</v>
-      </c>
-      <c r="D120" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="3">
-        <v>27</v>
-      </c>
-      <c r="D121" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="3">
-        <v>28</v>
-      </c>
-      <c r="D122" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="3">
-        <v>29</v>
-      </c>
-      <c r="D123" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="3">
-        <v>5</v>
-      </c>
-      <c r="D124" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="3">
-        <v>12</v>
-      </c>
-      <c r="D125" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="3">
-        <v>13</v>
-      </c>
-      <c r="D126" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3">
-        <v>17</v>
-      </c>
-      <c r="D127" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3">
-        <v>18</v>
-      </c>
-      <c r="D128" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="3">
-        <v>25</v>
-      </c>
-      <c r="D129" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="3">
-        <v>26</v>
-      </c>
-      <c r="D130" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="3">
-        <v>27</v>
-      </c>
-      <c r="D131" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="3">
-        <v>28</v>
-      </c>
-      <c r="D132" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="3">
-        <v>4</v>
-      </c>
-      <c r="D133" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="3">
-        <v>12</v>
-      </c>
-      <c r="D134" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="3">
-        <v>13</v>
-      </c>
-      <c r="D135" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="3">
-        <v>16</v>
-      </c>
-      <c r="D136" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="3">
-        <v>17</v>
-      </c>
-      <c r="D137" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="3">
-        <v>18</v>
-      </c>
-      <c r="D138" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="3">
-        <v>28</v>
-      </c>
-      <c r="D139" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="3">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="3">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="3">
-        <v>13</v>
-      </c>
-      <c r="D142" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="3">
-        <v>14</v>
-      </c>
-      <c r="D143" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="3">
-        <v>15</v>
-      </c>
-      <c r="D144" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="3">
-        <v>16</v>
-      </c>
-      <c r="D145" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C146" s="3">
-        <v>17</v>
-      </c>
-      <c r="D146" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="3">
-        <v>18</v>
-      </c>
-      <c r="D147" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="3">
-        <v>28</v>
-      </c>
-      <c r="D148" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="3">
-        <v>2</v>
-      </c>
-      <c r="D149" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="3">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="3">
-        <v>4</v>
-      </c>
-      <c r="D151" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="3">
-        <v>12</v>
-      </c>
-      <c r="D152" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="3">
-        <v>13</v>
-      </c>
-      <c r="D153" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="3">
-        <v>14</v>
-      </c>
-      <c r="D154" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="3">
-        <v>15</v>
-      </c>
-      <c r="D155" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="3">
-        <v>16</v>
-      </c>
-      <c r="D156" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" s="3">
-        <v>17</v>
-      </c>
-      <c r="D157" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="3">
-        <v>18</v>
-      </c>
-      <c r="D158" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="3">
-        <v>24</v>
-      </c>
-      <c r="D159" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="3">
-        <v>27</v>
-      </c>
-      <c r="D160" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="20" customHeight="1">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" s="3">
-        <v>28</v>
-      </c>
-      <c r="D161" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" s="3">
-        <v>2</v>
-      </c>
-      <c r="D162" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="3">
-        <v>3</v>
-      </c>
-      <c r="D163" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="3">
-        <v>4</v>
-      </c>
-      <c r="D164" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="3">
-        <v>5</v>
-      </c>
-      <c r="D165" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="3">
-        <v>24</v>
-      </c>
-      <c r="D166" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="3">
-        <v>25</v>
-      </c>
-      <c r="D167" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="3">
-        <v>26</v>
-      </c>
-      <c r="D168" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="3">
-        <v>27</v>
-      </c>
-      <c r="D169" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="3">
-        <v>4</v>
-      </c>
-      <c r="D170" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="3">
-        <v>5</v>
-      </c>
-      <c r="D171" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C172" s="3">
-        <v>26</v>
-      </c>
-      <c r="D172" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="3">
-        <v>27</v>
-      </c>
-      <c r="D173" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="3">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="3">
-        <v>25</v>
-      </c>
-      <c r="D175" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="3">
-        <v>26</v>
-      </c>
-      <c r="D176" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="3">
-        <v>27</v>
-      </c>
-      <c r="D177" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="3">
-        <v>3</v>
-      </c>
-      <c r="D178" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="3">
-        <v>7</v>
-      </c>
-      <c r="D179" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="3">
-        <v>23</v>
-      </c>
-      <c r="D180" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" s="3">
-        <v>24</v>
-      </c>
-      <c r="D181" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="3">
-        <v>25</v>
-      </c>
-      <c r="D182" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="3">
-        <v>26</v>
-      </c>
-      <c r="D183" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="3">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="3">
-        <v>6</v>
-      </c>
-      <c r="D185" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="3">
-        <v>7</v>
-      </c>
-      <c r="D186" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="3">
-        <v>9</v>
-      </c>
-      <c r="D187" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C188" s="3">
-        <v>22</v>
-      </c>
-      <c r="D188" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="1">
-        <v>23</v>
-      </c>
-      <c r="D189" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="1">
-        <v>24</v>
-      </c>
-      <c r="D190" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="1">
-        <v>25</v>
-      </c>
-      <c r="D191" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="1">
-        <v>26</v>
-      </c>
-      <c r="D192" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="1">
-        <v>28</v>
-      </c>
-      <c r="D193" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="1">
-        <v>4</v>
-      </c>
-      <c r="D194" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="1">
-        <v>5</v>
-      </c>
-      <c r="D195" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="1">
-        <v>6</v>
-      </c>
-      <c r="D196" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="1">
-        <v>7</v>
-      </c>
-      <c r="D197" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="1">
-        <v>8</v>
-      </c>
-      <c r="D198" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="1">
-        <v>9</v>
-      </c>
-      <c r="D199" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="1">
-        <v>10</v>
-      </c>
-      <c r="D200" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="1">
-        <v>21</v>
-      </c>
-      <c r="D201" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="1">
-        <v>22</v>
-      </c>
-      <c r="D202" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="1">
-        <v>26</v>
-      </c>
-      <c r="D203" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C204" s="1">
-        <v>6</v>
-      </c>
-      <c r="D204" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="1">
-        <v>7</v>
-      </c>
-      <c r="D205" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" s="1">
-        <v>8</v>
-      </c>
-      <c r="D206" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="1">
-        <v>10</v>
-      </c>
-      <c r="D207" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="1">
-        <v>11</v>
-      </c>
-      <c r="D208" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C209" s="1">
-        <v>22</v>
-      </c>
-      <c r="D209" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="1">
-        <v>26</v>
-      </c>
-      <c r="D210" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="1">
-        <v>27</v>
-      </c>
-      <c r="D211" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="1">
-        <v>4</v>
-      </c>
-      <c r="D212" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="1">
-        <v>5</v>
-      </c>
-      <c r="D213" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" s="1">
-        <v>6</v>
-      </c>
-      <c r="D214" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" s="1">
-        <v>7</v>
-      </c>
-      <c r="D215" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" s="1">
-        <v>21</v>
-      </c>
-      <c r="D216" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" s="1">
-        <v>22</v>
-      </c>
-      <c r="D217" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="1">
-        <v>25</v>
-      </c>
-      <c r="D218" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C219" s="1">
-        <v>26</v>
-      </c>
-      <c r="D219" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C220" s="1">
-        <v>27</v>
-      </c>
-      <c r="D220" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" s="1">
-        <v>28</v>
-      </c>
-      <c r="D221" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" s="1">
-        <v>4</v>
-      </c>
-      <c r="D222" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C223" s="1">
-        <v>5</v>
-      </c>
-      <c r="D223" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C224" s="1">
-        <v>7</v>
-      </c>
-      <c r="D224" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C225" s="1">
-        <v>12</v>
-      </c>
-      <c r="D225" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="1">
-        <v>21</v>
-      </c>
-      <c r="D226" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C227" s="1">
-        <v>22</v>
-      </c>
-      <c r="D227" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" s="1">
-        <v>23</v>
-      </c>
-      <c r="D228" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="1">
-        <v>24</v>
-      </c>
-      <c r="D229" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="1">
-        <v>25</v>
-      </c>
-      <c r="D230" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="1">
-        <v>27</v>
-      </c>
-      <c r="D231" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="1">
-        <v>28</v>
-      </c>
-      <c r="D232" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" s="1">
-        <v>3</v>
-      </c>
-      <c r="D233" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="1">
-        <v>5</v>
-      </c>
-      <c r="D234" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="1">
-        <v>7</v>
-      </c>
-      <c r="D235" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="1">
-        <v>10</v>
-      </c>
-      <c r="D236" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" s="1">
-        <v>14</v>
-      </c>
-      <c r="D237" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="1">
-        <v>15</v>
-      </c>
-      <c r="D238" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C239" s="1">
-        <v>16</v>
-      </c>
-      <c r="D239" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C240" s="1">
-        <v>17</v>
-      </c>
-      <c r="D240" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241" s="1">
-        <v>20</v>
-      </c>
-      <c r="D241" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="1">
-        <v>21</v>
-      </c>
-      <c r="D242" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C243" s="1">
-        <v>23</v>
-      </c>
-      <c r="D243" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C244" s="1">
-        <v>28</v>
-      </c>
-      <c r="D244" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="1">
-        <v>29</v>
-      </c>
-      <c r="D245" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" s="1">
-        <v>6</v>
-      </c>
-      <c r="D246" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" s="1">
-        <v>7</v>
-      </c>
-      <c r="D247" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C248" s="1">
-        <v>8</v>
-      </c>
-      <c r="D248" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C249" s="1">
-        <v>9</v>
-      </c>
-      <c r="D249" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="1">
-        <v>10</v>
-      </c>
-      <c r="D250" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="1">
-        <v>11</v>
-      </c>
-      <c r="D251" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="1">
-        <v>16</v>
-      </c>
-      <c r="D252" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="1">
-        <v>17</v>
-      </c>
-      <c r="D253" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C254" s="1">
-        <v>18</v>
-      </c>
-      <c r="D254" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C255" s="1">
-        <v>19</v>
-      </c>
-      <c r="D255" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C256" s="1">
-        <v>20</v>
-      </c>
-      <c r="D256" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="1">
-        <v>21</v>
-      </c>
-      <c r="D257" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" s="1">
-        <v>22</v>
-      </c>
-      <c r="D258" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C259" s="1">
-        <v>27</v>
-      </c>
-      <c r="D259" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C260" s="1">
-        <v>9</v>
-      </c>
-      <c r="D260" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C261" s="1">
-        <v>10</v>
-      </c>
-      <c r="D261" s="1">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="C23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -9266,6 +6466,3686 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D261"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>29</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="3">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>24</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3">
+        <v>25</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3">
+        <v>23</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>25</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>26</v>
+      </c>
+      <c r="D74" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>27</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>24</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="3">
+        <v>28</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
+        <v>14</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="3">
+        <v>15</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3">
+        <v>16</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3">
+        <v>17</v>
+      </c>
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="3">
+        <v>18</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3">
+        <v>27</v>
+      </c>
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>14</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="3">
+        <v>15</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3">
+        <v>16</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="3">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3">
+        <v>18</v>
+      </c>
+      <c r="D110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3">
+        <v>27</v>
+      </c>
+      <c r="D111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>28</v>
+      </c>
+      <c r="D112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="3">
+        <v>12</v>
+      </c>
+      <c r="D116" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="3">
+        <v>13</v>
+      </c>
+      <c r="D117" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3">
+        <v>18</v>
+      </c>
+      <c r="D119" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="3">
+        <v>26</v>
+      </c>
+      <c r="D120" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3">
+        <v>27</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="3">
+        <v>28</v>
+      </c>
+      <c r="D122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="3">
+        <v>29</v>
+      </c>
+      <c r="D123" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="3">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3">
+        <v>13</v>
+      </c>
+      <c r="D126" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="3">
+        <v>17</v>
+      </c>
+      <c r="D127" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3">
+        <v>18</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="3">
+        <v>25</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="3">
+        <v>26</v>
+      </c>
+      <c r="D130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="3">
+        <v>27</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3">
+        <v>28</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4</v>
+      </c>
+      <c r="D133" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="3">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3">
+        <v>13</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="3">
+        <v>16</v>
+      </c>
+      <c r="D136" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="3">
+        <v>17</v>
+      </c>
+      <c r="D137" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="3">
+        <v>18</v>
+      </c>
+      <c r="D138" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="3">
+        <v>28</v>
+      </c>
+      <c r="D139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="3">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="3">
+        <v>13</v>
+      </c>
+      <c r="D142" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="3">
+        <v>14</v>
+      </c>
+      <c r="D143" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="3">
+        <v>15</v>
+      </c>
+      <c r="D144" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3">
+        <v>16</v>
+      </c>
+      <c r="D145" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="3">
+        <v>17</v>
+      </c>
+      <c r="D146" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="3">
+        <v>18</v>
+      </c>
+      <c r="D147" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="3">
+        <v>28</v>
+      </c>
+      <c r="D148" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3">
+        <v>2</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4</v>
+      </c>
+      <c r="D151" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="3">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="3">
+        <v>13</v>
+      </c>
+      <c r="D153" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="3">
+        <v>14</v>
+      </c>
+      <c r="D154" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3">
+        <v>15</v>
+      </c>
+      <c r="D155" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="3">
+        <v>16</v>
+      </c>
+      <c r="D156" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="3">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="3">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="3">
+        <v>24</v>
+      </c>
+      <c r="D159" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3">
+        <v>27</v>
+      </c>
+      <c r="D160" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>28</v>
+      </c>
+      <c r="D161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="3">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="3">
+        <v>3</v>
+      </c>
+      <c r="D163" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="3">
+        <v>4</v>
+      </c>
+      <c r="D164" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="3">
+        <v>5</v>
+      </c>
+      <c r="D165" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="3">
+        <v>24</v>
+      </c>
+      <c r="D166" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>25</v>
+      </c>
+      <c r="D167" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="3">
+        <v>26</v>
+      </c>
+      <c r="D168" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="3">
+        <v>27</v>
+      </c>
+      <c r="D169" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="3">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="3">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="3">
+        <v>26</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="3">
+        <v>27</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="3">
+        <v>25</v>
+      </c>
+      <c r="D175" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="3">
+        <v>26</v>
+      </c>
+      <c r="D176" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
+        <v>27</v>
+      </c>
+      <c r="D177" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="3">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="3">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3">
+        <v>23</v>
+      </c>
+      <c r="D180" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="3">
+        <v>24</v>
+      </c>
+      <c r="D181" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="3">
+        <v>25</v>
+      </c>
+      <c r="D182" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="3">
+        <v>26</v>
+      </c>
+      <c r="D183" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="3">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="3">
+        <v>9</v>
+      </c>
+      <c r="D187" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="3">
+        <v>22</v>
+      </c>
+      <c r="D188" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1">
+        <v>23</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1">
+        <v>24</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="1">
+        <v>25</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="1">
+        <v>26</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="1">
+        <v>28</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="1">
+        <v>6</v>
+      </c>
+      <c r="D196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1">
+        <v>7</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1">
+        <v>8</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="1">
+        <v>9</v>
+      </c>
+      <c r="D199" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20" customHeight="1">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="1">
+        <v>10</v>
+      </c>
+      <c r="D200" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>21</v>
+      </c>
+      <c r="D201" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>22</v>
+      </c>
+      <c r="D202" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20" customHeight="1">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="1">
+        <v>26</v>
+      </c>
+      <c r="D203" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="1">
+        <v>6</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20" customHeight="1">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1">
+        <v>7</v>
+      </c>
+      <c r="D205" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="1">
+        <v>8</v>
+      </c>
+      <c r="D206" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1">
+        <v>10</v>
+      </c>
+      <c r="D207" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="1">
+        <v>11</v>
+      </c>
+      <c r="D208" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="1">
+        <v>22</v>
+      </c>
+      <c r="D209" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="1">
+        <v>26</v>
+      </c>
+      <c r="D210" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>27</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>4</v>
+      </c>
+      <c r="D212" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="1">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="1">
+        <v>6</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="1">
+        <v>7</v>
+      </c>
+      <c r="D215" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="1">
+        <v>21</v>
+      </c>
+      <c r="D216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="1">
+        <v>22</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1">
+        <v>25</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="1">
+        <v>26</v>
+      </c>
+      <c r="D219" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1">
+        <v>27</v>
+      </c>
+      <c r="D220" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="1">
+        <v>28</v>
+      </c>
+      <c r="D221" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="1">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="1">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="1">
+        <v>7</v>
+      </c>
+      <c r="D224" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C225" s="1">
+        <v>12</v>
+      </c>
+      <c r="D225" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20" customHeight="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="1">
+        <v>21</v>
+      </c>
+      <c r="D226" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="1">
+        <v>22</v>
+      </c>
+      <c r="D227" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="1">
+        <v>23</v>
+      </c>
+      <c r="D228" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1">
+        <v>24</v>
+      </c>
+      <c r="D229" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20" customHeight="1">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1">
+        <v>25</v>
+      </c>
+      <c r="D230" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="1">
+        <v>27</v>
+      </c>
+      <c r="D231" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="1">
+        <v>28</v>
+      </c>
+      <c r="D232" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="1">
+        <v>3</v>
+      </c>
+      <c r="D233" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="1">
+        <v>7</v>
+      </c>
+      <c r="D235" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="1">
+        <v>10</v>
+      </c>
+      <c r="D236" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="1">
+        <v>14</v>
+      </c>
+      <c r="D237" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="20" customHeight="1">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1">
+        <v>15</v>
+      </c>
+      <c r="D238" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="1">
+        <v>16</v>
+      </c>
+      <c r="D239" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20" customHeight="1">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="1">
+        <v>17</v>
+      </c>
+      <c r="D240" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20" customHeight="1">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1">
+        <v>20</v>
+      </c>
+      <c r="D241" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="20" customHeight="1">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1">
+        <v>21</v>
+      </c>
+      <c r="D242" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="20" customHeight="1">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" s="1">
+        <v>23</v>
+      </c>
+      <c r="D243" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20" customHeight="1">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" s="1">
+        <v>28</v>
+      </c>
+      <c r="D244" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20" customHeight="1">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="1">
+        <v>29</v>
+      </c>
+      <c r="D245" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20" customHeight="1">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="1">
+        <v>6</v>
+      </c>
+      <c r="D246" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="20" customHeight="1">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1">
+        <v>7</v>
+      </c>
+      <c r="D247" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="20" customHeight="1">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="1">
+        <v>8</v>
+      </c>
+      <c r="D248" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="20" customHeight="1">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" s="1">
+        <v>9</v>
+      </c>
+      <c r="D249" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="20" customHeight="1">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1">
+        <v>10</v>
+      </c>
+      <c r="D250" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="20" customHeight="1">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1">
+        <v>11</v>
+      </c>
+      <c r="D251" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="20" customHeight="1">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="1">
+        <v>16</v>
+      </c>
+      <c r="D252" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="20" customHeight="1">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="1">
+        <v>17</v>
+      </c>
+      <c r="D253" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20" customHeight="1">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="1">
+        <v>18</v>
+      </c>
+      <c r="D254" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="20" customHeight="1">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="1">
+        <v>19</v>
+      </c>
+      <c r="D255" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="20" customHeight="1">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1">
+        <v>20</v>
+      </c>
+      <c r="D256" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="20" customHeight="1">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="1">
+        <v>21</v>
+      </c>
+      <c r="D257" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="20" customHeight="1">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>22</v>
+      </c>
+      <c r="D258" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="20" customHeight="1">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>27</v>
+      </c>
+      <c r="D259" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="20" customHeight="1">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="1">
+        <v>9</v>
+      </c>
+      <c r="D260" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="20" customHeight="1">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="1">
+        <v>10</v>
+      </c>
+      <c r="D261" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -12946,7 +13826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -16626,7 +17506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -20306,7 +21186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -23986,7 +24866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>

--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -1,37 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="820" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="4940" yWindow="1960" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
     <sheet name="terrainStyle" sheetId="31" r:id="rId2"/>
     <sheet name="buff" sheetId="32" r:id="rId3"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId4"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId5"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId6"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId7"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId8"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId9"/>
+    <sheet name="moveLimit" sheetId="33" r:id="rId4"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId5"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId6"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId7"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId8"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId9"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="111">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -455,6 +460,10 @@
   </si>
   <si>
     <t>1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_needPalaceLevel</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5373,6 +5382,3685 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D261"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>28</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>29</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>22</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>24</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>24</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1">
+        <v>27</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="1">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>26</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>27</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>28</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>27</v>
+      </c>
+      <c r="D92" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>12</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>13</v>
+      </c>
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>14</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>15</v>
+      </c>
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>17</v>
+      </c>
+      <c r="D101" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>18</v>
+      </c>
+      <c r="D102" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>26</v>
+      </c>
+      <c r="D103" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>27</v>
+      </c>
+      <c r="D104" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1">
+        <v>29</v>
+      </c>
+      <c r="D105" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1">
+        <v>12</v>
+      </c>
+      <c r="D109" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1">
+        <v>13</v>
+      </c>
+      <c r="D110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>14</v>
+      </c>
+      <c r="D111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>15</v>
+      </c>
+      <c r="D112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="1">
+        <v>16</v>
+      </c>
+      <c r="D113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>18</v>
+      </c>
+      <c r="D115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1">
+        <v>26</v>
+      </c>
+      <c r="D116" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>27</v>
+      </c>
+      <c r="D117" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>28</v>
+      </c>
+      <c r="D118" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>29</v>
+      </c>
+      <c r="D119" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>13</v>
+      </c>
+      <c r="D123" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="1">
+        <v>17</v>
+      </c>
+      <c r="D124" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1">
+        <v>18</v>
+      </c>
+      <c r="D125" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="1">
+        <v>25</v>
+      </c>
+      <c r="D126" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1">
+        <v>29</v>
+      </c>
+      <c r="D127" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="1">
+        <v>13</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1">
+        <v>17</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1">
+        <v>25</v>
+      </c>
+      <c r="D134" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>29</v>
+      </c>
+      <c r="D135" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1">
+        <v>13</v>
+      </c>
+      <c r="D138" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16</v>
+      </c>
+      <c r="D139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>28</v>
+      </c>
+      <c r="D142" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>29</v>
+      </c>
+      <c r="D143" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1">
+        <v>13</v>
+      </c>
+      <c r="D146" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>14</v>
+      </c>
+      <c r="D147" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1">
+        <v>15</v>
+      </c>
+      <c r="D148" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1">
+        <v>16</v>
+      </c>
+      <c r="D149" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="1">
+        <v>17</v>
+      </c>
+      <c r="D150" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>18</v>
+      </c>
+      <c r="D151" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1">
+        <v>26</v>
+      </c>
+      <c r="D152" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="1">
+        <v>27</v>
+      </c>
+      <c r="D153" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>28</v>
+      </c>
+      <c r="D154" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="1">
+        <v>29</v>
+      </c>
+      <c r="D155" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1">
+        <v>12</v>
+      </c>
+      <c r="D158" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1">
+        <v>13</v>
+      </c>
+      <c r="D159" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1">
+        <v>15</v>
+      </c>
+      <c r="D161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1">
+        <v>16</v>
+      </c>
+      <c r="D162" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1">
+        <v>17</v>
+      </c>
+      <c r="D163" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>18</v>
+      </c>
+      <c r="D164" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1">
+        <v>27</v>
+      </c>
+      <c r="D165" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="1">
+        <v>29</v>
+      </c>
+      <c r="D166" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="1">
+        <v>28</v>
+      </c>
+      <c r="D169" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>25</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1">
+        <v>27</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2</v>
+      </c>
+      <c r="D176" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>25</v>
+      </c>
+      <c r="D177" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="1">
+        <v>26</v>
+      </c>
+      <c r="D178" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="1">
+        <v>6</v>
+      </c>
+      <c r="D181" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="1">
+        <v>24</v>
+      </c>
+      <c r="D182" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1">
+        <v>25</v>
+      </c>
+      <c r="D183" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="1">
+        <v>26</v>
+      </c>
+      <c r="D184" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="1">
+        <v>28</v>
+      </c>
+      <c r="D185" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2</v>
+      </c>
+      <c r="D186" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>5</v>
+      </c>
+      <c r="D187" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1">
+        <v>6</v>
+      </c>
+      <c r="D188" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1">
+        <v>23</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="1">
+        <v>24</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="1">
+        <v>25</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="1">
+        <v>26</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="1">
+        <v>29</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="1">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1">
+        <v>4</v>
+      </c>
+      <c r="D195" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1">
+        <v>7</v>
+      </c>
+      <c r="D196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="1">
+        <v>8</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1">
+        <v>14</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1">
+        <v>15</v>
+      </c>
+      <c r="D199" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20" customHeight="1">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1">
+        <v>16</v>
+      </c>
+      <c r="D200" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="1">
+        <v>28</v>
+      </c>
+      <c r="D201" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="1">
+        <v>29</v>
+      </c>
+      <c r="D202" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20" customHeight="1">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="1">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="1">
+        <v>6</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20" customHeight="1">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="1">
+        <v>10</v>
+      </c>
+      <c r="D205" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="1">
+        <v>11</v>
+      </c>
+      <c r="D206" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1">
+        <v>17</v>
+      </c>
+      <c r="D207" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" s="1">
+        <v>18</v>
+      </c>
+      <c r="D208" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="1">
+        <v>19</v>
+      </c>
+      <c r="D209" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="1">
+        <v>22</v>
+      </c>
+      <c r="D210" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>26</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1">
+        <v>28</v>
+      </c>
+      <c r="D212" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="1">
+        <v>6</v>
+      </c>
+      <c r="D215" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1">
+        <v>10</v>
+      </c>
+      <c r="D216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="1">
+        <v>12</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="1">
+        <v>13</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="1">
+        <v>19</v>
+      </c>
+      <c r="D219" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1">
+        <v>21</v>
+      </c>
+      <c r="D220" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="1">
+        <v>22</v>
+      </c>
+      <c r="D221" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="1">
+        <v>25</v>
+      </c>
+      <c r="D222" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1">
+        <v>26</v>
+      </c>
+      <c r="D223" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="1">
+        <v>6</v>
+      </c>
+      <c r="D225" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20" customHeight="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226" s="1">
+        <v>9</v>
+      </c>
+      <c r="D226" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="1">
+        <v>10</v>
+      </c>
+      <c r="D227" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="1">
+        <v>11</v>
+      </c>
+      <c r="D228" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="1">
+        <v>12</v>
+      </c>
+      <c r="D229" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20" customHeight="1">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="1">
+        <v>15</v>
+      </c>
+      <c r="D230" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="1">
+        <v>19</v>
+      </c>
+      <c r="D231" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1">
+        <v>22</v>
+      </c>
+      <c r="D232" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>23</v>
+      </c>
+      <c r="D233" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="1">
+        <v>24</v>
+      </c>
+      <c r="D234" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1">
+        <v>25</v>
+      </c>
+      <c r="D235" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2</v>
+      </c>
+      <c r="D236" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="1">
+        <v>3</v>
+      </c>
+      <c r="D237" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="20" customHeight="1">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" s="1">
+        <v>7</v>
+      </c>
+      <c r="D238" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1">
+        <v>8</v>
+      </c>
+      <c r="D239" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20" customHeight="1">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1">
+        <v>9</v>
+      </c>
+      <c r="D240" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20" customHeight="1">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="1">
+        <v>10</v>
+      </c>
+      <c r="D241" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="20" customHeight="1">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>12</v>
+      </c>
+      <c r="D242" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="20" customHeight="1">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1">
+        <v>14</v>
+      </c>
+      <c r="D243" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20" customHeight="1">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" s="1">
+        <v>15</v>
+      </c>
+      <c r="D244" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20" customHeight="1">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="1">
+        <v>18</v>
+      </c>
+      <c r="D245" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20" customHeight="1">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>19</v>
+      </c>
+      <c r="D246" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="20" customHeight="1">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="1">
+        <v>20</v>
+      </c>
+      <c r="D247" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="20" customHeight="1">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="1">
+        <v>21</v>
+      </c>
+      <c r="D248" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="20" customHeight="1">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1">
+        <v>29</v>
+      </c>
+      <c r="D249" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="20" customHeight="1">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1">
+        <v>3</v>
+      </c>
+      <c r="D250" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="20" customHeight="1">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1">
+        <v>8</v>
+      </c>
+      <c r="D251" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="20" customHeight="1">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="20" customHeight="1">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="1">
+        <v>12</v>
+      </c>
+      <c r="D253" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20" customHeight="1">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1">
+        <v>13</v>
+      </c>
+      <c r="D254" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="20" customHeight="1">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="1">
+        <v>17</v>
+      </c>
+      <c r="D255" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="20" customHeight="1">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="1">
+        <v>18</v>
+      </c>
+      <c r="D256" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="20" customHeight="1">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="1">
+        <v>19</v>
+      </c>
+      <c r="D257" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="20" customHeight="1">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>21</v>
+      </c>
+      <c r="D258" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="20" customHeight="1">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>23</v>
+      </c>
+      <c r="D259" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="20" customHeight="1">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="1">
+        <v>27</v>
+      </c>
+      <c r="D260" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="20" customHeight="1">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="1">
+        <v>28</v>
+      </c>
+      <c r="D261" s="1">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
@@ -5730,8 +9418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6466,6 +10154,387 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="5"/>
+    <col min="6" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="C23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="C26" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -10145,7 +14214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -13826,7 +17895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -17506,7 +21575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -21186,7 +25255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -24864,3683 +28933,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>11</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1">
-        <v>22</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="1">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1">
-        <v>27</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>13</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>15</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>17</v>
-      </c>
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1">
-        <v>25</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1">
-        <v>26</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>27</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1">
-        <v>28</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="1">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>13</v>
-      </c>
-      <c r="D60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>21</v>
-      </c>
-      <c r="D62" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>22</v>
-      </c>
-      <c r="D63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="1">
-        <v>23</v>
-      </c>
-      <c r="D64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <v>24</v>
-      </c>
-      <c r="D65" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="1">
-        <v>28</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>29</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1">
-        <v>4</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="1">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="1">
-        <v>22</v>
-      </c>
-      <c r="D70" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1">
-        <v>24</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1">
-        <v>29</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="1">
-        <v>4</v>
-      </c>
-      <c r="D73" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="1">
-        <v>24</v>
-      </c>
-      <c r="D75" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="1">
-        <v>27</v>
-      </c>
-      <c r="D76" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="1">
-        <v>29</v>
-      </c>
-      <c r="D77" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="1">
-        <v>6</v>
-      </c>
-      <c r="D80" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="1">
-        <v>25</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="1">
-        <v>26</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="1">
-        <v>28</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="1">
-        <v>5</v>
-      </c>
-      <c r="D85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="1">
-        <v>26</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="1">
-        <v>27</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="1">
-        <v>28</v>
-      </c>
-      <c r="D88" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="1">
-        <v>4</v>
-      </c>
-      <c r="D90" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="1">
-        <v>27</v>
-      </c>
-      <c r="D92" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="1">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1">
-        <v>12</v>
-      </c>
-      <c r="D96" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="1">
-        <v>13</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="1">
-        <v>14</v>
-      </c>
-      <c r="D98" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="1">
-        <v>15</v>
-      </c>
-      <c r="D99" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="1">
-        <v>16</v>
-      </c>
-      <c r="D100" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="1">
-        <v>17</v>
-      </c>
-      <c r="D101" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="1">
-        <v>18</v>
-      </c>
-      <c r="D102" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="1">
-        <v>26</v>
-      </c>
-      <c r="D103" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="1">
-        <v>27</v>
-      </c>
-      <c r="D104" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="1">
-        <v>29</v>
-      </c>
-      <c r="D105" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="1">
-        <v>4</v>
-      </c>
-      <c r="D108" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="1">
-        <v>12</v>
-      </c>
-      <c r="D109" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="1">
-        <v>13</v>
-      </c>
-      <c r="D110" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="1">
-        <v>14</v>
-      </c>
-      <c r="D111" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1">
-        <v>15</v>
-      </c>
-      <c r="D112" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C113" s="1">
-        <v>16</v>
-      </c>
-      <c r="D113" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="1">
-        <v>17</v>
-      </c>
-      <c r="D114" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="1">
-        <v>18</v>
-      </c>
-      <c r="D115" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="1">
-        <v>26</v>
-      </c>
-      <c r="D116" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="1">
-        <v>27</v>
-      </c>
-      <c r="D117" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C118" s="1">
-        <v>28</v>
-      </c>
-      <c r="D118" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1">
-        <v>29</v>
-      </c>
-      <c r="D119" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2</v>
-      </c>
-      <c r="D120" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="1">
-        <v>12</v>
-      </c>
-      <c r="D122" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1">
-        <v>13</v>
-      </c>
-      <c r="D123" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="1">
-        <v>17</v>
-      </c>
-      <c r="D124" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="1">
-        <v>18</v>
-      </c>
-      <c r="D125" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" s="1">
-        <v>25</v>
-      </c>
-      <c r="D126" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="1">
-        <v>29</v>
-      </c>
-      <c r="D127" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="1">
-        <v>3</v>
-      </c>
-      <c r="D128" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="1">
-        <v>4</v>
-      </c>
-      <c r="D129" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="1">
-        <v>12</v>
-      </c>
-      <c r="D130" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="1">
-        <v>13</v>
-      </c>
-      <c r="D131" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="1">
-        <v>17</v>
-      </c>
-      <c r="D132" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="1">
-        <v>18</v>
-      </c>
-      <c r="D133" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="1">
-        <v>25</v>
-      </c>
-      <c r="D134" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="1">
-        <v>29</v>
-      </c>
-      <c r="D135" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="1">
-        <v>12</v>
-      </c>
-      <c r="D137" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="1">
-        <v>13</v>
-      </c>
-      <c r="D138" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="1">
-        <v>16</v>
-      </c>
-      <c r="D139" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="1">
-        <v>17</v>
-      </c>
-      <c r="D140" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1">
-        <v>18</v>
-      </c>
-      <c r="D141" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1">
-        <v>28</v>
-      </c>
-      <c r="D142" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="1">
-        <v>29</v>
-      </c>
-      <c r="D143" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="1">
-        <v>5</v>
-      </c>
-      <c r="D144" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1">
-        <v>12</v>
-      </c>
-      <c r="D145" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C146" s="1">
-        <v>13</v>
-      </c>
-      <c r="D146" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1">
-        <v>14</v>
-      </c>
-      <c r="D147" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="1">
-        <v>15</v>
-      </c>
-      <c r="D148" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="1">
-        <v>16</v>
-      </c>
-      <c r="D149" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" s="1">
-        <v>17</v>
-      </c>
-      <c r="D150" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="1">
-        <v>18</v>
-      </c>
-      <c r="D151" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="1">
-        <v>26</v>
-      </c>
-      <c r="D152" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="1">
-        <v>27</v>
-      </c>
-      <c r="D153" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="1">
-        <v>28</v>
-      </c>
-      <c r="D154" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="1">
-        <v>29</v>
-      </c>
-      <c r="D155" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="1">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="1">
-        <v>4</v>
-      </c>
-      <c r="D157" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="1">
-        <v>12</v>
-      </c>
-      <c r="D158" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="1">
-        <v>13</v>
-      </c>
-      <c r="D159" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="1">
-        <v>14</v>
-      </c>
-      <c r="D160" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="20" customHeight="1">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="1">
-        <v>15</v>
-      </c>
-      <c r="D161" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="1">
-        <v>16</v>
-      </c>
-      <c r="D162" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="1">
-        <v>17</v>
-      </c>
-      <c r="D163" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="1">
-        <v>18</v>
-      </c>
-      <c r="D164" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="1">
-        <v>27</v>
-      </c>
-      <c r="D165" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="1">
-        <v>29</v>
-      </c>
-      <c r="D166" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2</v>
-      </c>
-      <c r="D167" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="1">
-        <v>3</v>
-      </c>
-      <c r="D168" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169" s="1">
-        <v>28</v>
-      </c>
-      <c r="D169" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" s="1">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="1">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="1">
-        <v>4</v>
-      </c>
-      <c r="D172" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1">
-        <v>25</v>
-      </c>
-      <c r="D173" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="1">
-        <v>27</v>
-      </c>
-      <c r="D174" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="1">
-        <v>2</v>
-      </c>
-      <c r="D176" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="1">
-        <v>25</v>
-      </c>
-      <c r="D177" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="1">
-        <v>26</v>
-      </c>
-      <c r="D178" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="1">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2</v>
-      </c>
-      <c r="D180" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C181" s="1">
-        <v>6</v>
-      </c>
-      <c r="D181" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="1">
-        <v>24</v>
-      </c>
-      <c r="D182" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C183" s="1">
-        <v>25</v>
-      </c>
-      <c r="D183" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C184" s="1">
-        <v>26</v>
-      </c>
-      <c r="D184" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="1">
-        <v>28</v>
-      </c>
-      <c r="D185" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C186" s="1">
-        <v>2</v>
-      </c>
-      <c r="D186" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="1">
-        <v>5</v>
-      </c>
-      <c r="D187" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="1">
-        <v>6</v>
-      </c>
-      <c r="D188" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="1">
-        <v>23</v>
-      </c>
-      <c r="D189" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="1">
-        <v>24</v>
-      </c>
-      <c r="D190" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="1">
-        <v>25</v>
-      </c>
-      <c r="D191" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="1">
-        <v>26</v>
-      </c>
-      <c r="D192" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="1">
-        <v>29</v>
-      </c>
-      <c r="D193" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="1">
-        <v>3</v>
-      </c>
-      <c r="D194" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="1">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="1">
-        <v>7</v>
-      </c>
-      <c r="D196" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" s="1">
-        <v>8</v>
-      </c>
-      <c r="D197" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="1">
-        <v>14</v>
-      </c>
-      <c r="D198" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C199" s="1">
-        <v>15</v>
-      </c>
-      <c r="D199" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="1">
-        <v>16</v>
-      </c>
-      <c r="D200" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="1">
-        <v>28</v>
-      </c>
-      <c r="D201" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="1">
-        <v>29</v>
-      </c>
-      <c r="D202" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="1">
-        <v>2</v>
-      </c>
-      <c r="D203" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="1">
-        <v>6</v>
-      </c>
-      <c r="D204" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" s="1">
-        <v>10</v>
-      </c>
-      <c r="D205" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="1">
-        <v>11</v>
-      </c>
-      <c r="D206" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="1">
-        <v>17</v>
-      </c>
-      <c r="D207" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208" s="1">
-        <v>18</v>
-      </c>
-      <c r="D208" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="1">
-        <v>19</v>
-      </c>
-      <c r="D209" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="1">
-        <v>22</v>
-      </c>
-      <c r="D210" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="1">
-        <v>26</v>
-      </c>
-      <c r="D211" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="1">
-        <v>28</v>
-      </c>
-      <c r="D212" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C213" s="1">
-        <v>3</v>
-      </c>
-      <c r="D213" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" s="1">
-        <v>5</v>
-      </c>
-      <c r="D214" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="1">
-        <v>6</v>
-      </c>
-      <c r="D215" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="1">
-        <v>10</v>
-      </c>
-      <c r="D216" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="1">
-        <v>12</v>
-      </c>
-      <c r="D217" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="1">
-        <v>13</v>
-      </c>
-      <c r="D218" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C219" s="1">
-        <v>19</v>
-      </c>
-      <c r="D219" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="1">
-        <v>21</v>
-      </c>
-      <c r="D220" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C221" s="1">
-        <v>22</v>
-      </c>
-      <c r="D221" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" s="1">
-        <v>25</v>
-      </c>
-      <c r="D222" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="1">
-        <v>26</v>
-      </c>
-      <c r="D223" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="1">
-        <v>2</v>
-      </c>
-      <c r="D224" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" s="1">
-        <v>6</v>
-      </c>
-      <c r="D225" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C226" s="1">
-        <v>9</v>
-      </c>
-      <c r="D226" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="1">
-        <v>10</v>
-      </c>
-      <c r="D227" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C228" s="1">
-        <v>11</v>
-      </c>
-      <c r="D228" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C229" s="1">
-        <v>12</v>
-      </c>
-      <c r="D229" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C230" s="1">
-        <v>15</v>
-      </c>
-      <c r="D230" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C231" s="1">
-        <v>19</v>
-      </c>
-      <c r="D231" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="1">
-        <v>22</v>
-      </c>
-      <c r="D232" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="1">
-        <v>23</v>
-      </c>
-      <c r="D233" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="1">
-        <v>24</v>
-      </c>
-      <c r="D234" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="1">
-        <v>25</v>
-      </c>
-      <c r="D235" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="1">
-        <v>2</v>
-      </c>
-      <c r="D236" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" s="1">
-        <v>3</v>
-      </c>
-      <c r="D237" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C238" s="1">
-        <v>7</v>
-      </c>
-      <c r="D238" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="1">
-        <v>8</v>
-      </c>
-      <c r="D239" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="1">
-        <v>9</v>
-      </c>
-      <c r="D240" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" s="1">
-        <v>10</v>
-      </c>
-      <c r="D241" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C242" s="1">
-        <v>12</v>
-      </c>
-      <c r="D242" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C243" s="1">
-        <v>14</v>
-      </c>
-      <c r="D243" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C244" s="1">
-        <v>15</v>
-      </c>
-      <c r="D244" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C245" s="1">
-        <v>18</v>
-      </c>
-      <c r="D245" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="1">
-        <v>19</v>
-      </c>
-      <c r="D246" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="1">
-        <v>20</v>
-      </c>
-      <c r="D247" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" s="1">
-        <v>21</v>
-      </c>
-      <c r="D248" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="1">
-        <v>29</v>
-      </c>
-      <c r="D249" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="1">
-        <v>3</v>
-      </c>
-      <c r="D250" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C251" s="1">
-        <v>8</v>
-      </c>
-      <c r="D251" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" s="1">
-        <v>9</v>
-      </c>
-      <c r="D252" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253" s="1">
-        <v>12</v>
-      </c>
-      <c r="D253" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="1">
-        <v>13</v>
-      </c>
-      <c r="D254" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C255" s="1">
-        <v>17</v>
-      </c>
-      <c r="D255" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="1">
-        <v>18</v>
-      </c>
-      <c r="D256" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" s="1">
-        <v>19</v>
-      </c>
-      <c r="D257" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C258" s="1">
-        <v>21</v>
-      </c>
-      <c r="D258" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C259" s="1">
-        <v>23</v>
-      </c>
-      <c r="D259" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="1">
-        <v>27</v>
-      </c>
-      <c r="D260" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C261" s="1">
-        <v>28</v>
-      </c>
-      <c r="D261" s="1">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -1,39 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1960" windowWidth="26360" windowHeight="18040" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="3220" yWindow="760" windowWidth="28580" windowHeight="18960" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
     <sheet name="terrainStyle" sheetId="31" r:id="rId2"/>
     <sheet name="buff" sheetId="32" r:id="rId3"/>
     <sheet name="moveLimit" sheetId="33" r:id="rId4"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId5"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId6"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId7"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId8"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId9"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId10"/>
+    <sheet name="bigRound" sheetId="34" r:id="rId5"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId6"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId7"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId8"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId9"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId10"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="115">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -415,55 +420,70 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>33_36</t>
+    <t>INT_needPalaceLevel</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>33_36</t>
+    <t>33_35</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>29_32</t>
+    <t>30_32</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>29_32</t>
+    <t>27_29</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>25_28</t>
+    <t>24_26</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>25_28</t>
+    <t>21_23</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>21_24</t>
+    <t>18_20</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>17_20</t>
+    <t>15_17</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>13_16</t>
+    <t>12_14</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>9_12</t>
+    <t>9_11</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>5_8</t>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>1_8</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1_4</t>
+    <t>INT_locationFromY</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT_needPalaceLevel</t>
+    <t>INT_locationFromX</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_locationToX</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_locationToY</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +630,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1873">
+  <cellStyleXfs count="1879">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2436,6 +2456,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2517,7 +2543,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1873">
+  <cellStyles count="1879">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3456,6 +3482,9 @@
     <cellStyle name="超链接" xfId="1867" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1869" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1877" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4387,6 +4416,9 @@
     <cellStyle name="访问过的超链接" xfId="1868" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1870" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1878" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -5386,6 +5418,3686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>21</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>18</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>24</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>26</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>27</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1">
+        <v>25</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>27</v>
+      </c>
+      <c r="D89" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="1">
+        <v>28</v>
+      </c>
+      <c r="D90" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>26</v>
+      </c>
+      <c r="D96" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>27</v>
+      </c>
+      <c r="D97" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>13</v>
+      </c>
+      <c r="D101" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>14</v>
+      </c>
+      <c r="D102" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1">
+        <v>15</v>
+      </c>
+      <c r="D103" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>16</v>
+      </c>
+      <c r="D104" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1">
+        <v>17</v>
+      </c>
+      <c r="D105" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>18</v>
+      </c>
+      <c r="D106" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1">
+        <v>25</v>
+      </c>
+      <c r="D107" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>26</v>
+      </c>
+      <c r="D108" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="1">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1">
+        <v>12</v>
+      </c>
+      <c r="D111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1">
+        <v>13</v>
+      </c>
+      <c r="D112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1">
+        <v>14</v>
+      </c>
+      <c r="D113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1">
+        <v>15</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="1">
+        <v>16</v>
+      </c>
+      <c r="D115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1">
+        <v>17</v>
+      </c>
+      <c r="D116" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1">
+        <v>18</v>
+      </c>
+      <c r="D117" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>24</v>
+      </c>
+      <c r="D118" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>28</v>
+      </c>
+      <c r="D119" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>29</v>
+      </c>
+      <c r="D120" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1">
+        <v>13</v>
+      </c>
+      <c r="D124" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="1">
+        <v>17</v>
+      </c>
+      <c r="D125" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>18</v>
+      </c>
+      <c r="D126" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="1">
+        <v>24</v>
+      </c>
+      <c r="D127" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1">
+        <v>28</v>
+      </c>
+      <c r="D128" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="1">
+        <v>13</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1">
+        <v>17</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1">
+        <v>18</v>
+      </c>
+      <c r="D134" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="1">
+        <v>24</v>
+      </c>
+      <c r="D135" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1">
+        <v>27</v>
+      </c>
+      <c r="D136" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="1">
+        <v>28</v>
+      </c>
+      <c r="D137" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="1">
+        <v>29</v>
+      </c>
+      <c r="D138" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>13</v>
+      </c>
+      <c r="D142" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="1">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1">
+        <v>17</v>
+      </c>
+      <c r="D144" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>18</v>
+      </c>
+      <c r="D145" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="1">
+        <v>25</v>
+      </c>
+      <c r="D146" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>26</v>
+      </c>
+      <c r="D147" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1">
+        <v>29</v>
+      </c>
+      <c r="D148" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1">
+        <v>13</v>
+      </c>
+      <c r="D153" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>14</v>
+      </c>
+      <c r="D154" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>15</v>
+      </c>
+      <c r="D155" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1">
+        <v>16</v>
+      </c>
+      <c r="D156" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" s="1">
+        <v>17</v>
+      </c>
+      <c r="D157" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1">
+        <v>26</v>
+      </c>
+      <c r="D159" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1">
+        <v>28</v>
+      </c>
+      <c r="D160" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
+      </c>
+      <c r="D161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
+      </c>
+      <c r="D163" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1">
+        <v>12</v>
+      </c>
+      <c r="D165" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1">
+        <v>13</v>
+      </c>
+      <c r="D166" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1">
+        <v>14</v>
+      </c>
+      <c r="D167" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1">
+        <v>15</v>
+      </c>
+      <c r="D168" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="1">
+        <v>16</v>
+      </c>
+      <c r="D169" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="1">
+        <v>17</v>
+      </c>
+      <c r="D170" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="1">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="1">
+        <v>26</v>
+      </c>
+      <c r="D172" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1">
+        <v>27</v>
+      </c>
+      <c r="D173" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2</v>
+      </c>
+      <c r="D175" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="1">
+        <v>27</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="1">
+        <v>28</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="1">
+        <v>5</v>
+      </c>
+      <c r="D181" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="1">
+        <v>6</v>
+      </c>
+      <c r="D182" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="1">
+        <v>28</v>
+      </c>
+      <c r="D183" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1">
+        <v>6</v>
+      </c>
+      <c r="D187" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1">
+        <v>25</v>
+      </c>
+      <c r="D188" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="1">
+        <v>27</v>
+      </c>
+      <c r="D189" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="1">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="1">
+        <v>8</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>9</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1">
+        <v>24</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="1">
+        <v>25</v>
+      </c>
+      <c r="D194" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="1">
+        <v>26</v>
+      </c>
+      <c r="D195" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="1">
+        <v>27</v>
+      </c>
+      <c r="D196" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20" customHeight="1">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="1">
+        <v>6</v>
+      </c>
+      <c r="D200" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="1">
+        <v>9</v>
+      </c>
+      <c r="D201" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>20</v>
+      </c>
+      <c r="D202" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20" customHeight="1">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="1">
+        <v>21</v>
+      </c>
+      <c r="D203" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="1">
+        <v>26</v>
+      </c>
+      <c r="D204" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20" customHeight="1">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1">
+        <v>29</v>
+      </c>
+      <c r="D205" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="1">
+        <v>6</v>
+      </c>
+      <c r="D206" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="1">
+        <v>7</v>
+      </c>
+      <c r="D207" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="1">
+        <v>13</v>
+      </c>
+      <c r="D208" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="1">
+        <v>14</v>
+      </c>
+      <c r="D209" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="1">
+        <v>18</v>
+      </c>
+      <c r="D210" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>19</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1">
+        <v>20</v>
+      </c>
+      <c r="D212" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="1">
+        <v>22</v>
+      </c>
+      <c r="D213" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="1">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="1">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1">
+        <v>9</v>
+      </c>
+      <c r="D216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="1">
+        <v>12</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="1">
+        <v>19</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="1">
+        <v>21</v>
+      </c>
+      <c r="D219" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="1">
+        <v>22</v>
+      </c>
+      <c r="D220" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="1">
+        <v>25</v>
+      </c>
+      <c r="D221" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1">
+        <v>26</v>
+      </c>
+      <c r="D222" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1">
+        <v>29</v>
+      </c>
+      <c r="D223" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+      <c r="D224" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="1">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20" customHeight="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1">
+        <v>7</v>
+      </c>
+      <c r="D226" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1">
+        <v>8</v>
+      </c>
+      <c r="D227" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="1">
+        <v>9</v>
+      </c>
+      <c r="D228" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1">
+        <v>10</v>
+      </c>
+      <c r="D229" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20" customHeight="1">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1">
+        <v>12</v>
+      </c>
+      <c r="D230" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="1">
+        <v>16</v>
+      </c>
+      <c r="D231" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="1">
+        <v>19</v>
+      </c>
+      <c r="D232" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="1">
+        <v>23</v>
+      </c>
+      <c r="D233" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="1">
+        <v>24</v>
+      </c>
+      <c r="D234" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="1">
+        <v>25</v>
+      </c>
+      <c r="D235" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1">
+        <v>26</v>
+      </c>
+      <c r="D236" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1">
+        <v>27</v>
+      </c>
+      <c r="D237" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="20" customHeight="1">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1">
+        <v>3</v>
+      </c>
+      <c r="D238" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="1">
+        <v>4</v>
+      </c>
+      <c r="D239" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20" customHeight="1">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="1">
+        <v>8</v>
+      </c>
+      <c r="D240" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20" customHeight="1">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="1">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="20" customHeight="1">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="1">
+        <v>12</v>
+      </c>
+      <c r="D242" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="20" customHeight="1">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="1">
+        <v>15</v>
+      </c>
+      <c r="D243" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20" customHeight="1">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="1">
+        <v>16</v>
+      </c>
+      <c r="D244" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20" customHeight="1">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="1">
+        <v>18</v>
+      </c>
+      <c r="D245" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20" customHeight="1">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>19</v>
+      </c>
+      <c r="D246" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="20" customHeight="1">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="1">
+        <v>24</v>
+      </c>
+      <c r="D247" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="20" customHeight="1">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1">
+        <v>25</v>
+      </c>
+      <c r="D248" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="20" customHeight="1">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="1">
+        <v>28</v>
+      </c>
+      <c r="D249" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="20" customHeight="1">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="1">
+        <v>29</v>
+      </c>
+      <c r="D250" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="20" customHeight="1">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="1">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="20" customHeight="1">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="20" customHeight="1">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="1">
+        <v>13</v>
+      </c>
+      <c r="D253" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20" customHeight="1">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="1">
+        <v>14</v>
+      </c>
+      <c r="D254" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="20" customHeight="1">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1">
+        <v>15</v>
+      </c>
+      <c r="D255" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="20" customHeight="1">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="1">
+        <v>16</v>
+      </c>
+      <c r="D256" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="20" customHeight="1">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="1">
+        <v>17</v>
+      </c>
+      <c r="D257" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="20" customHeight="1">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="1">
+        <v>18</v>
+      </c>
+      <c r="D258" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="20" customHeight="1">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" s="1">
+        <v>27</v>
+      </c>
+      <c r="D259" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="20" customHeight="1">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" s="1">
+        <v>29</v>
+      </c>
+      <c r="D260" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="20" customHeight="1">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" s="1">
+        <v>6</v>
+      </c>
+      <c r="D261" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D261"/>
+  <sheetViews>
     <sheetView showRuler="0" topLeftCell="A134" workbookViewId="0">
       <selection activeCell="B146" sqref="B146"/>
     </sheetView>
@@ -9419,15 +13131,15 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I6" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="5"/>
     <col min="6" max="16384" width="20.6640625" style="1"/>
   </cols>
@@ -9484,7 +13196,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>97</v>
@@ -9518,7 +13230,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -9543,13 +13255,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="5">
         <v>6</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -9559,28 +13271,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5">
         <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5">
         <v>6</v>
       </c>
       <c r="H5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -9590,28 +13302,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -9621,28 +13333,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -9652,28 +13364,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -9684,28 +13396,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -9716,19 +13428,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -9737,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -9747,19 +13459,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -9768,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -9778,16 +13490,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -9799,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -9809,16 +13521,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -9830,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -9840,13 +13552,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -9861,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -9871,13 +13583,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -9891,8 +13603,8 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>107</v>
+      <c r="I15" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -9903,10 +13615,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -9923,8 +13635,8 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>107</v>
+      <c r="I16" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -9935,10 +13647,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -9955,7 +13667,7 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J17" s="7"/>
@@ -9967,7 +13679,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -9987,7 +13699,7 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>108</v>
       </c>
       <c r="J18" s="7"/>
@@ -9999,7 +13711,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -10019,7 +13731,7 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10028,7 +13740,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -10048,8 +13760,8 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>109</v>
+      <c r="I20" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
@@ -10057,7 +13769,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -10077,8 +13789,8 @@
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>109</v>
+      <c r="I21" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
@@ -10106,8 +13818,8 @@
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>109</v>
+      <c r="I22" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
@@ -10115,6 +13827,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
       <c r="C24" s="6"/>
@@ -10157,8 +13870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10176,7 +13889,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C1" s="9"/>
       <c r="E1" s="9"/>
@@ -10201,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="5"/>
@@ -10216,7 +13929,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="5"/>
@@ -10231,7 +13944,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="5"/>
@@ -10246,7 +13959,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="5"/>
@@ -10261,7 +13974,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="5"/>
@@ -10276,7 +13989,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
@@ -10292,7 +14005,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="5"/>
@@ -10308,7 +14021,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="5"/>
@@ -10323,7 +14036,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="5"/>
@@ -10338,7 +14051,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
       <c r="F12" s="5"/>
@@ -10353,7 +14066,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1"/>
       <c r="F13" s="5"/>
@@ -10368,7 +14081,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1"/>
       <c r="F14" s="5"/>
@@ -10383,7 +14096,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="5"/>
@@ -10399,7 +14112,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1"/>
       <c r="F16" s="5"/>
@@ -10415,7 +14128,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1"/>
       <c r="F17" s="5"/>
@@ -10431,7 +14144,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6"/>
       <c r="F18" s="5"/>
@@ -10535,6 +14248,418 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1"/>
+    <col min="5" max="5" width="20.6640625" style="5"/>
+    <col min="6" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>19</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="C14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="C15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="C16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="3:12" ht="20" customHeight="1">
+      <c r="C17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="3:12" ht="20" customHeight="1">
+      <c r="C18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="3:12" ht="20" customHeight="1">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:12" ht="20" customHeight="1">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="3:12" ht="20" customHeight="1">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="3:12" ht="20" customHeight="1">
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="3:12" ht="20" customHeight="1">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:12" ht="20" customHeight="1">
+      <c r="C24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="3:12" ht="20" customHeight="1">
+      <c r="C25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="3:12" ht="20" customHeight="1">
+      <c r="C26" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -14214,7 +18339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -17895,7 +22020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -21575,7 +25700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -25253,3684 +29378,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>13</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1">
-        <v>19</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>21</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>27</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>29</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>13</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <v>17</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1">
-        <v>18</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1">
-        <v>27</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1">
-        <v>28</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>7</v>
-      </c>
-      <c r="D60" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1">
-        <v>8</v>
-      </c>
-      <c r="D61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1">
-        <v>20</v>
-      </c>
-      <c r="D63" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>22</v>
-      </c>
-      <c r="D64" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="1">
-        <v>25</v>
-      </c>
-      <c r="D65" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>26</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="1">
-        <v>27</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="1">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>24</v>
-      </c>
-      <c r="D71" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1">
-        <v>25</v>
-      </c>
-      <c r="D72" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="1">
-        <v>26</v>
-      </c>
-      <c r="D73" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="1">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="1">
-        <v>26</v>
-      </c>
-      <c r="D76" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="1">
-        <v>27</v>
-      </c>
-      <c r="D77" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="1">
-        <v>28</v>
-      </c>
-      <c r="D78" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>5</v>
-      </c>
-      <c r="D80" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1">
-        <v>25</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1">
-        <v>26</v>
-      </c>
-      <c r="D82" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="1">
-        <v>28</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="1">
-        <v>29</v>
-      </c>
-      <c r="D84" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1">
-        <v>4</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="1">
-        <v>5</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1">
-        <v>6</v>
-      </c>
-      <c r="D88" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1">
-        <v>27</v>
-      </c>
-      <c r="D89" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="1">
-        <v>28</v>
-      </c>
-      <c r="D90" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="1">
-        <v>2</v>
-      </c>
-      <c r="D92" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="1">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="1">
-        <v>5</v>
-      </c>
-      <c r="D95" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="1">
-        <v>26</v>
-      </c>
-      <c r="D96" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="1">
-        <v>27</v>
-      </c>
-      <c r="D97" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="1">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="1">
-        <v>4</v>
-      </c>
-      <c r="D99" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="1">
-        <v>12</v>
-      </c>
-      <c r="D100" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="1">
-        <v>13</v>
-      </c>
-      <c r="D101" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1">
-        <v>14</v>
-      </c>
-      <c r="D102" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1">
-        <v>15</v>
-      </c>
-      <c r="D103" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="1">
-        <v>16</v>
-      </c>
-      <c r="D104" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="1">
-        <v>17</v>
-      </c>
-      <c r="D105" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="1">
-        <v>18</v>
-      </c>
-      <c r="D106" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="1">
-        <v>25</v>
-      </c>
-      <c r="D107" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="1">
-        <v>26</v>
-      </c>
-      <c r="D108" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="1">
-        <v>29</v>
-      </c>
-      <c r="D109" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="1">
-        <v>4</v>
-      </c>
-      <c r="D110" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" s="1">
-        <v>12</v>
-      </c>
-      <c r="D111" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="1">
-        <v>13</v>
-      </c>
-      <c r="D112" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="1">
-        <v>14</v>
-      </c>
-      <c r="D113" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="1">
-        <v>15</v>
-      </c>
-      <c r="D114" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="1">
-        <v>16</v>
-      </c>
-      <c r="D115" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="1">
-        <v>17</v>
-      </c>
-      <c r="D116" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="1">
-        <v>18</v>
-      </c>
-      <c r="D117" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="1">
-        <v>24</v>
-      </c>
-      <c r="D118" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1">
-        <v>28</v>
-      </c>
-      <c r="D119" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="1">
-        <v>29</v>
-      </c>
-      <c r="D120" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" s="1">
-        <v>5</v>
-      </c>
-      <c r="D122" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1">
-        <v>12</v>
-      </c>
-      <c r="D123" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1">
-        <v>13</v>
-      </c>
-      <c r="D124" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="1">
-        <v>17</v>
-      </c>
-      <c r="D125" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="1">
-        <v>18</v>
-      </c>
-      <c r="D126" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="1">
-        <v>24</v>
-      </c>
-      <c r="D127" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="1">
-        <v>28</v>
-      </c>
-      <c r="D128" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="1">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="1">
-        <v>4</v>
-      </c>
-      <c r="D130" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="1">
-        <v>12</v>
-      </c>
-      <c r="D131" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="1">
-        <v>13</v>
-      </c>
-      <c r="D132" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="1">
-        <v>17</v>
-      </c>
-      <c r="D133" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="1">
-        <v>18</v>
-      </c>
-      <c r="D134" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="1">
-        <v>24</v>
-      </c>
-      <c r="D135" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="1">
-        <v>27</v>
-      </c>
-      <c r="D136" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="1">
-        <v>28</v>
-      </c>
-      <c r="D137" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="1">
-        <v>29</v>
-      </c>
-      <c r="D138" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" s="1">
-        <v>2</v>
-      </c>
-      <c r="D139" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="1">
-        <v>3</v>
-      </c>
-      <c r="D140" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="1">
-        <v>13</v>
-      </c>
-      <c r="D142" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="1">
-        <v>16</v>
-      </c>
-      <c r="D143" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="1">
-        <v>17</v>
-      </c>
-      <c r="D144" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1">
-        <v>18</v>
-      </c>
-      <c r="D145" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="1">
-        <v>25</v>
-      </c>
-      <c r="D146" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1">
-        <v>26</v>
-      </c>
-      <c r="D147" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="1">
-        <v>29</v>
-      </c>
-      <c r="D148" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="1">
-        <v>3</v>
-      </c>
-      <c r="D149" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="1">
-        <v>4</v>
-      </c>
-      <c r="D150" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="1">
-        <v>5</v>
-      </c>
-      <c r="D151" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="1">
-        <v>12</v>
-      </c>
-      <c r="D152" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="1">
-        <v>13</v>
-      </c>
-      <c r="D153" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="1">
-        <v>14</v>
-      </c>
-      <c r="D154" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1">
-        <v>15</v>
-      </c>
-      <c r="D155" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="1">
-        <v>16</v>
-      </c>
-      <c r="D156" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" s="1">
-        <v>17</v>
-      </c>
-      <c r="D157" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="1">
-        <v>18</v>
-      </c>
-      <c r="D158" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="1">
-        <v>26</v>
-      </c>
-      <c r="D159" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="1">
-        <v>28</v>
-      </c>
-      <c r="D160" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="20" customHeight="1">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="1">
-        <v>2</v>
-      </c>
-      <c r="D161" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="1">
-        <v>3</v>
-      </c>
-      <c r="D162" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" s="1">
-        <v>4</v>
-      </c>
-      <c r="D163" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="1">
-        <v>5</v>
-      </c>
-      <c r="D164" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="1">
-        <v>12</v>
-      </c>
-      <c r="D165" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="1">
-        <v>13</v>
-      </c>
-      <c r="D166" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="1">
-        <v>14</v>
-      </c>
-      <c r="D167" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="1">
-        <v>15</v>
-      </c>
-      <c r="D168" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="1">
-        <v>16</v>
-      </c>
-      <c r="D169" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="1">
-        <v>17</v>
-      </c>
-      <c r="D170" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="1">
-        <v>18</v>
-      </c>
-      <c r="D171" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C172" s="1">
-        <v>26</v>
-      </c>
-      <c r="D172" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="1">
-        <v>27</v>
-      </c>
-      <c r="D173" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C174" s="1">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="1">
-        <v>2</v>
-      </c>
-      <c r="D175" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
-      </c>
-      <c r="D177" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="1">
-        <v>27</v>
-      </c>
-      <c r="D178" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" s="1">
-        <v>28</v>
-      </c>
-      <c r="D179" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" s="1">
-        <v>2</v>
-      </c>
-      <c r="D180" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C181" s="1">
-        <v>5</v>
-      </c>
-      <c r="D181" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" s="1">
-        <v>6</v>
-      </c>
-      <c r="D182" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="1">
-        <v>28</v>
-      </c>
-      <c r="D183" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="1">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="1">
-        <v>4</v>
-      </c>
-      <c r="D185" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="1">
-        <v>5</v>
-      </c>
-      <c r="D186" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="1">
-        <v>6</v>
-      </c>
-      <c r="D187" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="1">
-        <v>25</v>
-      </c>
-      <c r="D188" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="1">
-        <v>27</v>
-      </c>
-      <c r="D189" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="1">
-        <v>4</v>
-      </c>
-      <c r="D190" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="1">
-        <v>8</v>
-      </c>
-      <c r="D191" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="1">
-        <v>9</v>
-      </c>
-      <c r="D192" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" s="1">
-        <v>24</v>
-      </c>
-      <c r="D193" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="1">
-        <v>25</v>
-      </c>
-      <c r="D194" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="1">
-        <v>26</v>
-      </c>
-      <c r="D195" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="1">
-        <v>27</v>
-      </c>
-      <c r="D196" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="1">
-        <v>2</v>
-      </c>
-      <c r="D197" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="1">
-        <v>4</v>
-      </c>
-      <c r="D198" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="1">
-        <v>5</v>
-      </c>
-      <c r="D199" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="1">
-        <v>6</v>
-      </c>
-      <c r="D200" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="1">
-        <v>9</v>
-      </c>
-      <c r="D201" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="1">
-        <v>20</v>
-      </c>
-      <c r="D202" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="1">
-        <v>21</v>
-      </c>
-      <c r="D203" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" s="1">
-        <v>26</v>
-      </c>
-      <c r="D204" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="1">
-        <v>29</v>
-      </c>
-      <c r="D205" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="1">
-        <v>6</v>
-      </c>
-      <c r="D206" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="1">
-        <v>7</v>
-      </c>
-      <c r="D207" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="1">
-        <v>13</v>
-      </c>
-      <c r="D208" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="1">
-        <v>14</v>
-      </c>
-      <c r="D209" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="1">
-        <v>18</v>
-      </c>
-      <c r="D210" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="1">
-        <v>19</v>
-      </c>
-      <c r="D211" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="1">
-        <v>20</v>
-      </c>
-      <c r="D212" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="1">
-        <v>22</v>
-      </c>
-      <c r="D213" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="1">
-        <v>3</v>
-      </c>
-      <c r="D214" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C215" s="1">
-        <v>5</v>
-      </c>
-      <c r="D215" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="1">
-        <v>9</v>
-      </c>
-      <c r="D216" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="1">
-        <v>12</v>
-      </c>
-      <c r="D217" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C218" s="1">
-        <v>19</v>
-      </c>
-      <c r="D218" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="1">
-        <v>21</v>
-      </c>
-      <c r="D219" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C220" s="1">
-        <v>22</v>
-      </c>
-      <c r="D220" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C221" s="1">
-        <v>25</v>
-      </c>
-      <c r="D221" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="1">
-        <v>26</v>
-      </c>
-      <c r="D222" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C223" s="1">
-        <v>29</v>
-      </c>
-      <c r="D223" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C224" s="1">
-        <v>2</v>
-      </c>
-      <c r="D224" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C225" s="1">
-        <v>3</v>
-      </c>
-      <c r="D225" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="1">
-        <v>7</v>
-      </c>
-      <c r="D226" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="1">
-        <v>8</v>
-      </c>
-      <c r="D227" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C228" s="1">
-        <v>9</v>
-      </c>
-      <c r="D228" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="1">
-        <v>10</v>
-      </c>
-      <c r="D229" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C230" s="1">
-        <v>12</v>
-      </c>
-      <c r="D230" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="1">
-        <v>16</v>
-      </c>
-      <c r="D231" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C232" s="1">
-        <v>19</v>
-      </c>
-      <c r="D232" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" s="1">
-        <v>23</v>
-      </c>
-      <c r="D233" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C234" s="1">
-        <v>24</v>
-      </c>
-      <c r="D234" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C235" s="1">
-        <v>25</v>
-      </c>
-      <c r="D235" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C236" s="1">
-        <v>26</v>
-      </c>
-      <c r="D236" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="1">
-        <v>27</v>
-      </c>
-      <c r="D237" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="1">
-        <v>3</v>
-      </c>
-      <c r="D238" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="1">
-        <v>4</v>
-      </c>
-      <c r="D239" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="1">
-        <v>8</v>
-      </c>
-      <c r="D240" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" s="1">
-        <v>9</v>
-      </c>
-      <c r="D241" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="1">
-        <v>12</v>
-      </c>
-      <c r="D242" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C243" s="1">
-        <v>15</v>
-      </c>
-      <c r="D243" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="1">
-        <v>16</v>
-      </c>
-      <c r="D244" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" s="1">
-        <v>18</v>
-      </c>
-      <c r="D245" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="1">
-        <v>19</v>
-      </c>
-      <c r="D246" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="1">
-        <v>24</v>
-      </c>
-      <c r="D247" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="1">
-        <v>25</v>
-      </c>
-      <c r="D248" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" s="1">
-        <v>28</v>
-      </c>
-      <c r="D249" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" s="1">
-        <v>29</v>
-      </c>
-      <c r="D250" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C251" s="1">
-        <v>5</v>
-      </c>
-      <c r="D251" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" s="1">
-        <v>6</v>
-      </c>
-      <c r="D252" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C253" s="1">
-        <v>13</v>
-      </c>
-      <c r="D253" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="1">
-        <v>14</v>
-      </c>
-      <c r="D254" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="1">
-        <v>15</v>
-      </c>
-      <c r="D255" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="1">
-        <v>16</v>
-      </c>
-      <c r="D256" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C257" s="1">
-        <v>17</v>
-      </c>
-      <c r="D257" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C258" s="1">
-        <v>18</v>
-      </c>
-      <c r="D258" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C259" s="1">
-        <v>27</v>
-      </c>
-      <c r="D259" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C260" s="1">
-        <v>29</v>
-      </c>
-      <c r="D260" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C261" s="1">
-        <v>6</v>
-      </c>
-      <c r="D261" s="1">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="760" windowWidth="28580" windowHeight="18960" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3880" yWindow="21600" windowWidth="28800" windowHeight="17540" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -12,36 +12,41 @@
     <sheet name="buff" sheetId="32" r:id="rId3"/>
     <sheet name="moveLimit" sheetId="33" r:id="rId4"/>
     <sheet name="bigRound" sheetId="34" r:id="rId5"/>
-    <sheet name="allianceMap_1" sheetId="24" r:id="rId6"/>
-    <sheet name="allianceMap_2" sheetId="25" r:id="rId7"/>
-    <sheet name="allianceMap_3" sheetId="26" r:id="rId8"/>
-    <sheet name="allianceMap_4" sheetId="27" r:id="rId9"/>
-    <sheet name="allianceMap_5" sheetId="28" r:id="rId10"/>
-    <sheet name="allianceMap_6" sheetId="29" r:id="rId11"/>
+    <sheet name="roundIndex" sheetId="35" r:id="rId6"/>
+    <sheet name="allianceMap_1" sheetId="24" r:id="rId7"/>
+    <sheet name="allianceMap_2" sheetId="25" r:id="rId8"/>
+    <sheet name="allianceMap_3" sheetId="26" r:id="rId9"/>
+    <sheet name="allianceMap_4" sheetId="27" r:id="rId10"/>
+    <sheet name="allianceMap_5" sheetId="28" r:id="rId11"/>
+    <sheet name="allianceMap_6" sheetId="29" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="114">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -384,10 +389,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT_villageAddPercent</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_dragonExpAddPercent</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -475,15 +476,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT_locationToX</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT_locationToY</t>
+    <t>INT_villageAddPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +631,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1879">
+  <cellStyleXfs count="1883">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2456,6 +2457,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2543,7 +2548,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1879">
+  <cellStyles count="1883">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3485,6 +3490,8 @@
     <cellStyle name="超链接" xfId="1873" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1875" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1881" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4419,6 +4426,8 @@
     <cellStyle name="访问过的超链接" xfId="1874" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1876" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1882" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -4872,7 +4881,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5418,6 +5427,3686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>28</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>23</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>23</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>24</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="1">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1">
+        <v>27</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>28</v>
+      </c>
+      <c r="D72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>29</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="1">
+        <v>26</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1">
+        <v>27</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1">
+        <v>26</v>
+      </c>
+      <c r="D85" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>27</v>
+      </c>
+      <c r="D86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>26</v>
+      </c>
+      <c r="D88" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>28</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>29</v>
+      </c>
+      <c r="D90" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>14</v>
+      </c>
+      <c r="D96" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>15</v>
+      </c>
+      <c r="D97" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>18</v>
+      </c>
+      <c r="D100" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>25</v>
+      </c>
+      <c r="D101" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1">
+        <v>13</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>15</v>
+      </c>
+      <c r="D109" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="1">
+        <v>16</v>
+      </c>
+      <c r="D110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="1">
+        <v>24</v>
+      </c>
+      <c r="D113" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1">
+        <v>25</v>
+      </c>
+      <c r="D114" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>29</v>
+      </c>
+      <c r="D115" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1">
+        <v>13</v>
+      </c>
+      <c r="D119" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>17</v>
+      </c>
+      <c r="D120" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1">
+        <v>18</v>
+      </c>
+      <c r="D121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="1">
+        <v>24</v>
+      </c>
+      <c r="D122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1">
+        <v>25</v>
+      </c>
+      <c r="D123" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1">
+        <v>29</v>
+      </c>
+      <c r="D124" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="1">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="1">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1">
+        <v>17</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1">
+        <v>18</v>
+      </c>
+      <c r="D130" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1">
+        <v>25</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1">
+        <v>28</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>29</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="1">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1">
+        <v>6</v>
+      </c>
+      <c r="D136" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1">
+        <v>13</v>
+      </c>
+      <c r="D138" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16</v>
+      </c>
+      <c r="D139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1">
+        <v>27</v>
+      </c>
+      <c r="D142" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1">
+        <v>28</v>
+      </c>
+      <c r="D143" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1">
+        <v>29</v>
+      </c>
+      <c r="D144" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1">
+        <v>7</v>
+      </c>
+      <c r="D146" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1">
+        <v>13</v>
+      </c>
+      <c r="D148" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1">
+        <v>14</v>
+      </c>
+      <c r="D149" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1">
+        <v>15</v>
+      </c>
+      <c r="D150" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>16</v>
+      </c>
+      <c r="D151" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="1">
+        <v>17</v>
+      </c>
+      <c r="D152" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>18</v>
+      </c>
+      <c r="D153" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="1">
+        <v>26</v>
+      </c>
+      <c r="D154" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>28</v>
+      </c>
+      <c r="D155" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1">
+        <v>29</v>
+      </c>
+      <c r="D156" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="1">
+        <v>7</v>
+      </c>
+      <c r="D158" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1">
+        <v>12</v>
+      </c>
+      <c r="D159" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1">
+        <v>13</v>
+      </c>
+      <c r="D160" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1">
+        <v>14</v>
+      </c>
+      <c r="D161" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1">
+        <v>15</v>
+      </c>
+      <c r="D162" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>16</v>
+      </c>
+      <c r="D163" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1">
+        <v>17</v>
+      </c>
+      <c r="D164" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1">
+        <v>18</v>
+      </c>
+      <c r="D165" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1">
+        <v>27</v>
+      </c>
+      <c r="D166" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="1">
+        <v>28</v>
+      </c>
+      <c r="D167" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1">
+        <v>6</v>
+      </c>
+      <c r="D169" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>7</v>
+      </c>
+      <c r="D170" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1">
+        <v>25</v>
+      </c>
+      <c r="D171" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1">
+        <v>28</v>
+      </c>
+      <c r="D172" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="1">
+        <v>25</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="1">
+        <v>26</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="1">
+        <v>4</v>
+      </c>
+      <c r="D177" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1">
+        <v>8</v>
+      </c>
+      <c r="D179" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="1">
+        <v>26</v>
+      </c>
+      <c r="D180" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C181" s="1">
+        <v>27</v>
+      </c>
+      <c r="D181" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="1">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="1">
+        <v>8</v>
+      </c>
+      <c r="D185" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1">
+        <v>27</v>
+      </c>
+      <c r="D186" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1">
+        <v>28</v>
+      </c>
+      <c r="D187" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="1">
+        <v>6</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="1">
+        <v>28</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="1">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="1">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="1">
+        <v>7</v>
+      </c>
+      <c r="D195" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="1">
+        <v>17</v>
+      </c>
+      <c r="D196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="1">
+        <v>24</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1">
+        <v>28</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20" customHeight="1">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3</v>
+      </c>
+      <c r="D200" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="1">
+        <v>10</v>
+      </c>
+      <c r="D201" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>11</v>
+      </c>
+      <c r="D202" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20" customHeight="1">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="1">
+        <v>12</v>
+      </c>
+      <c r="D203" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>13</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20" customHeight="1">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1">
+        <v>17</v>
+      </c>
+      <c r="D205" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="1">
+        <v>18</v>
+      </c>
+      <c r="D206" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1">
+        <v>19</v>
+      </c>
+      <c r="D207" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" s="1">
+        <v>22</v>
+      </c>
+      <c r="D208" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="1">
+        <v>24</v>
+      </c>
+      <c r="D209" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="1">
+        <v>27</v>
+      </c>
+      <c r="D210" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="1">
+        <v>28</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="1">
+        <v>8</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1">
+        <v>12</v>
+      </c>
+      <c r="D215" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1">
+        <v>13</v>
+      </c>
+      <c r="D216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="1">
+        <v>14</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="1">
+        <v>19</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="1">
+        <v>21</v>
+      </c>
+      <c r="D219" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="1">
+        <v>22</v>
+      </c>
+      <c r="D220" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="1">
+        <v>25</v>
+      </c>
+      <c r="D221" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="1">
+        <v>26</v>
+      </c>
+      <c r="D222" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="1">
+        <v>27</v>
+      </c>
+      <c r="D223" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="1">
+        <v>28</v>
+      </c>
+      <c r="D224" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="1">
+        <v>3</v>
+      </c>
+      <c r="D225" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20" customHeight="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="1">
+        <v>6</v>
+      </c>
+      <c r="D226" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1">
+        <v>7</v>
+      </c>
+      <c r="D227" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="1">
+        <v>9</v>
+      </c>
+      <c r="D228" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="1">
+        <v>10</v>
+      </c>
+      <c r="D229" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20" customHeight="1">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="1">
+        <v>11</v>
+      </c>
+      <c r="D230" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="1">
+        <v>12</v>
+      </c>
+      <c r="D231" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="1">
+        <v>13</v>
+      </c>
+      <c r="D232" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1">
+        <v>14</v>
+      </c>
+      <c r="D233" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1">
+        <v>15</v>
+      </c>
+      <c r="D234" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="1">
+        <v>21</v>
+      </c>
+      <c r="D235" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" s="1">
+        <v>26</v>
+      </c>
+      <c r="D236" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1">
+        <v>27</v>
+      </c>
+      <c r="D237" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="20" customHeight="1">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="20" customHeight="1">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="1">
+        <v>6</v>
+      </c>
+      <c r="D240" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="20" customHeight="1">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="1">
+        <v>7</v>
+      </c>
+      <c r="D241" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="20" customHeight="1">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="1">
+        <v>10</v>
+      </c>
+      <c r="D242" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="20" customHeight="1">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="1">
+        <v>12</v>
+      </c>
+      <c r="D243" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="20" customHeight="1">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="1">
+        <v>14</v>
+      </c>
+      <c r="D244" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="20" customHeight="1">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="1">
+        <v>15</v>
+      </c>
+      <c r="D245" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="20" customHeight="1">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="1">
+        <v>18</v>
+      </c>
+      <c r="D246" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="20" customHeight="1">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1">
+        <v>19</v>
+      </c>
+      <c r="D247" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="20" customHeight="1">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="1">
+        <v>20</v>
+      </c>
+      <c r="D248" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="20" customHeight="1">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1">
+        <v>22</v>
+      </c>
+      <c r="D249" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="20" customHeight="1">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="1">
+        <v>23</v>
+      </c>
+      <c r="D250" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="20" customHeight="1">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="1">
+        <v>24</v>
+      </c>
+      <c r="D251" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="20" customHeight="1">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="1">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="20" customHeight="1">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1">
+        <v>15</v>
+      </c>
+      <c r="D253" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="20" customHeight="1">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="1">
+        <v>16</v>
+      </c>
+      <c r="D254" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="20" customHeight="1">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1">
+        <v>17</v>
+      </c>
+      <c r="D255" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="20" customHeight="1">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="1">
+        <v>18</v>
+      </c>
+      <c r="D256" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="20" customHeight="1">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="1">
+        <v>19</v>
+      </c>
+      <c r="D257" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="20" customHeight="1">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="1">
+        <v>26</v>
+      </c>
+      <c r="D258" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="20" customHeight="1">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="1">
+        <v>27</v>
+      </c>
+      <c r="D259" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="20" customHeight="1">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" s="1">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="20" customHeight="1">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" s="1">
+        <v>6</v>
+      </c>
+      <c r="D261" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D261"/>
+  <sheetViews>
     <sheetView showRuler="0" topLeftCell="A143" workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
@@ -9094,7 +12783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -13128,10 +16817,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I5:I6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13149,28 +16838,28 @@
         <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -13199,7 +16888,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -13230,7 +16919,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -13261,7 +16950,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -13292,7 +16981,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -13323,7 +17012,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -13354,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -13385,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -13417,7 +17106,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -13449,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -13480,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -13511,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -13542,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -13573,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -13604,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -13636,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -13668,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -13700,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -13732,127 +17421,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="C21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="C23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
-      <c r="C24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
-      <c r="C25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
-      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13868,10 +17470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13889,7 +17491,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="9"/>
       <c r="E1" s="9"/>
@@ -13899,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" s="5"/>
@@ -13914,7 +17516,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="5"/>
@@ -13929,7 +17531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="5"/>
@@ -13944,7 +17546,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="5"/>
@@ -13959,7 +17561,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="5"/>
@@ -13974,7 +17576,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="5"/>
@@ -13989,7 +17591,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
@@ -14005,7 +17607,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="5"/>
@@ -14021,7 +17623,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="5"/>
@@ -14036,7 +17638,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="5"/>
@@ -14169,71 +17771,29 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
       <c r="C20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
       <c r="C21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
       <c r="C22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
-      <c r="C23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
-      <c r="C24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
-      <c r="C25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
-      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -14252,7 +17812,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14267,36 +17827,25 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -14310,16 +17859,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -14333,16 +17876,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -14356,16 +17893,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -14379,16 +17910,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -14402,16 +17927,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -14425,16 +17944,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -14449,16 +17962,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -14469,21 +17976,7 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5">
-        <v>40</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -14492,21 +17985,7 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5">
-        <v>30</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -14515,21 +17994,7 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5">
-        <v>40</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -14538,21 +18003,7 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5">
-        <v>40</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -14660,6 +18111,1525 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L123"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1"/>
+    <col min="5" max="5" width="20.6640625" style="5"/>
+    <col min="6" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9</v>
+      </c>
+      <c r="C68" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="C69" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8</v>
+      </c>
+      <c r="C73" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>7</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="20" customHeight="1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="C102" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>10</v>
+      </c>
+      <c r="C103" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>10</v>
+      </c>
+      <c r="C104" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>10</v>
+      </c>
+      <c r="C105" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>10</v>
+      </c>
+      <c r="C107" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>10</v>
+      </c>
+      <c r="C108" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>9</v>
+      </c>
+      <c r="C110" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8</v>
+      </c>
+      <c r="C111" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>7</v>
+      </c>
+      <c r="C112" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>6</v>
+      </c>
+      <c r="C113" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4</v>
+      </c>
+      <c r="C115" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3</v>
+      </c>
+      <c r="C116" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2</v>
+      </c>
+      <c r="C117" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -18339,7 +23309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -22020,7 +26990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D261"/>
   <sheetViews>
@@ -25698,3684 +30668,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>16</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>21</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>29</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1">
-        <v>9</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>15</v>
-      </c>
-      <c r="D43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1">
-        <v>18</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1">
-        <v>21</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>22</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
-        <v>23</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="1">
-        <v>24</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1">
-        <v>29</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1">
-        <v>13</v>
-      </c>
-      <c r="D58" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>15</v>
-      </c>
-      <c r="D60" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1">
-        <v>16</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>24</v>
-      </c>
-      <c r="D63" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="1">
-        <v>27</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <v>28</v>
-      </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="1">
-        <v>8</v>
-      </c>
-      <c r="D69" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="1">
-        <v>23</v>
-      </c>
-      <c r="D70" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1">
-        <v>27</v>
-      </c>
-      <c r="D71" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="1">
-        <v>28</v>
-      </c>
-      <c r="D72" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1">
-        <v>29</v>
-      </c>
-      <c r="D73" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="1">
-        <v>4</v>
-      </c>
-      <c r="D75" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1">
-        <v>24</v>
-      </c>
-      <c r="D77" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="1">
-        <v>28</v>
-      </c>
-      <c r="D78" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="1">
-        <v>26</v>
-      </c>
-      <c r="D81" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="1">
-        <v>28</v>
-      </c>
-      <c r="D82" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="1">
-        <v>27</v>
-      </c>
-      <c r="D83" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="1">
-        <v>26</v>
-      </c>
-      <c r="D85" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="1">
-        <v>27</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="1">
-        <v>26</v>
-      </c>
-      <c r="D88" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="1">
-        <v>28</v>
-      </c>
-      <c r="D89" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="1">
-        <v>29</v>
-      </c>
-      <c r="D90" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="1">
-        <v>5</v>
-      </c>
-      <c r="D92" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="1">
-        <v>13</v>
-      </c>
-      <c r="D95" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1">
-        <v>14</v>
-      </c>
-      <c r="D96" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="1">
-        <v>15</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="1">
-        <v>16</v>
-      </c>
-      <c r="D98" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="1">
-        <v>17</v>
-      </c>
-      <c r="D99" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="1">
-        <v>18</v>
-      </c>
-      <c r="D100" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="1">
-        <v>25</v>
-      </c>
-      <c r="D101" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="1">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="1">
-        <v>4</v>
-      </c>
-      <c r="D104" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="1">
-        <v>5</v>
-      </c>
-      <c r="D105" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="1">
-        <v>12</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="1">
-        <v>13</v>
-      </c>
-      <c r="D107" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="1">
-        <v>14</v>
-      </c>
-      <c r="D108" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="1">
-        <v>15</v>
-      </c>
-      <c r="D109" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="1">
-        <v>16</v>
-      </c>
-      <c r="D110" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="1">
-        <v>17</v>
-      </c>
-      <c r="D111" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1">
-        <v>18</v>
-      </c>
-      <c r="D112" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="1">
-        <v>24</v>
-      </c>
-      <c r="D113" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="1">
-        <v>25</v>
-      </c>
-      <c r="D114" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="1">
-        <v>29</v>
-      </c>
-      <c r="D115" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="1">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="1">
-        <v>4</v>
-      </c>
-      <c r="D117" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="1">
-        <v>12</v>
-      </c>
-      <c r="D118" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="1">
-        <v>13</v>
-      </c>
-      <c r="D119" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" s="1">
-        <v>17</v>
-      </c>
-      <c r="D120" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1">
-        <v>18</v>
-      </c>
-      <c r="D121" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="1">
-        <v>24</v>
-      </c>
-      <c r="D122" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1">
-        <v>25</v>
-      </c>
-      <c r="D123" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1">
-        <v>29</v>
-      </c>
-      <c r="D124" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="1">
-        <v>4</v>
-      </c>
-      <c r="D125" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1">
-        <v>5</v>
-      </c>
-      <c r="D126" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="1">
-        <v>12</v>
-      </c>
-      <c r="D127" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="1">
-        <v>13</v>
-      </c>
-      <c r="D128" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="1">
-        <v>17</v>
-      </c>
-      <c r="D129" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="1">
-        <v>18</v>
-      </c>
-      <c r="D130" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="1">
-        <v>25</v>
-      </c>
-      <c r="D131" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="1">
-        <v>28</v>
-      </c>
-      <c r="D132" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="1">
-        <v>29</v>
-      </c>
-      <c r="D133" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="1">
-        <v>4</v>
-      </c>
-      <c r="D134" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="1">
-        <v>5</v>
-      </c>
-      <c r="D135" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="1">
-        <v>6</v>
-      </c>
-      <c r="D136" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="1">
-        <v>12</v>
-      </c>
-      <c r="D137" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="1">
-        <v>13</v>
-      </c>
-      <c r="D138" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="1">
-        <v>16</v>
-      </c>
-      <c r="D139" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="1">
-        <v>17</v>
-      </c>
-      <c r="D140" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1">
-        <v>18</v>
-      </c>
-      <c r="D141" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="1">
-        <v>27</v>
-      </c>
-      <c r="D142" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="1">
-        <v>28</v>
-      </c>
-      <c r="D143" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="1">
-        <v>29</v>
-      </c>
-      <c r="D144" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="1">
-        <v>7</v>
-      </c>
-      <c r="D146" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1">
-        <v>12</v>
-      </c>
-      <c r="D147" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="1">
-        <v>13</v>
-      </c>
-      <c r="D148" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="1">
-        <v>14</v>
-      </c>
-      <c r="D149" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="1">
-        <v>15</v>
-      </c>
-      <c r="D150" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1">
-        <v>16</v>
-      </c>
-      <c r="D151" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" s="1">
-        <v>17</v>
-      </c>
-      <c r="D152" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="1">
-        <v>18</v>
-      </c>
-      <c r="D153" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="1">
-        <v>26</v>
-      </c>
-      <c r="D154" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1">
-        <v>28</v>
-      </c>
-      <c r="D155" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="1">
-        <v>29</v>
-      </c>
-      <c r="D156" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="1">
-        <v>3</v>
-      </c>
-      <c r="D157" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="1">
-        <v>7</v>
-      </c>
-      <c r="D158" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="1">
-        <v>12</v>
-      </c>
-      <c r="D159" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="1">
-        <v>13</v>
-      </c>
-      <c r="D160" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="20" customHeight="1">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="1">
-        <v>14</v>
-      </c>
-      <c r="D161" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="1">
-        <v>15</v>
-      </c>
-      <c r="D162" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="1">
-        <v>16</v>
-      </c>
-      <c r="D163" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="1">
-        <v>17</v>
-      </c>
-      <c r="D164" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="1">
-        <v>18</v>
-      </c>
-      <c r="D165" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="1">
-        <v>27</v>
-      </c>
-      <c r="D166" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="1">
-        <v>28</v>
-      </c>
-      <c r="D167" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="1">
-        <v>3</v>
-      </c>
-      <c r="D168" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="1">
-        <v>6</v>
-      </c>
-      <c r="D169" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="1">
-        <v>7</v>
-      </c>
-      <c r="D170" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="1">
-        <v>25</v>
-      </c>
-      <c r="D171" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="1">
-        <v>28</v>
-      </c>
-      <c r="D172" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="1">
-        <v>4</v>
-      </c>
-      <c r="D173" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" s="1">
-        <v>5</v>
-      </c>
-      <c r="D174" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="1">
-        <v>25</v>
-      </c>
-      <c r="D175" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="1">
-        <v>26</v>
-      </c>
-      <c r="D176" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="1">
-        <v>4</v>
-      </c>
-      <c r="D177" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" s="1">
-        <v>7</v>
-      </c>
-      <c r="D178" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="1">
-        <v>8</v>
-      </c>
-      <c r="D179" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="1">
-        <v>26</v>
-      </c>
-      <c r="D180" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C181" s="1">
-        <v>27</v>
-      </c>
-      <c r="D181" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="1">
-        <v>4</v>
-      </c>
-      <c r="D182" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="1">
-        <v>5</v>
-      </c>
-      <c r="D183" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="1">
-        <v>7</v>
-      </c>
-      <c r="D184" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="1">
-        <v>8</v>
-      </c>
-      <c r="D185" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="1">
-        <v>27</v>
-      </c>
-      <c r="D186" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="1">
-        <v>28</v>
-      </c>
-      <c r="D187" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="1">
-        <v>2</v>
-      </c>
-      <c r="D188" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="1">
-        <v>5</v>
-      </c>
-      <c r="D189" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="1">
-        <v>6</v>
-      </c>
-      <c r="D190" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="1">
-        <v>28</v>
-      </c>
-      <c r="D191" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="1">
-        <v>3</v>
-      </c>
-      <c r="D192" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="1">
-        <v>4</v>
-      </c>
-      <c r="D193" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="1">
-        <v>5</v>
-      </c>
-      <c r="D194" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C195" s="1">
-        <v>7</v>
-      </c>
-      <c r="D195" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="1">
-        <v>17</v>
-      </c>
-      <c r="D196" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="1">
-        <v>24</v>
-      </c>
-      <c r="D197" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="1">
-        <v>28</v>
-      </c>
-      <c r="D198" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="1">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="1">
-        <v>3</v>
-      </c>
-      <c r="D200" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="1">
-        <v>10</v>
-      </c>
-      <c r="D201" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="1">
-        <v>11</v>
-      </c>
-      <c r="D202" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="1">
-        <v>12</v>
-      </c>
-      <c r="D203" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="1">
-        <v>13</v>
-      </c>
-      <c r="D204" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C205" s="1">
-        <v>17</v>
-      </c>
-      <c r="D205" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="1">
-        <v>18</v>
-      </c>
-      <c r="D206" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="1">
-        <v>19</v>
-      </c>
-      <c r="D207" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208" s="1">
-        <v>22</v>
-      </c>
-      <c r="D208" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="1">
-        <v>24</v>
-      </c>
-      <c r="D209" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="1">
-        <v>27</v>
-      </c>
-      <c r="D210" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="1">
-        <v>28</v>
-      </c>
-      <c r="D211" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="1">
-        <v>2</v>
-      </c>
-      <c r="D212" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="1">
-        <v>3</v>
-      </c>
-      <c r="D213" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="1">
-        <v>8</v>
-      </c>
-      <c r="D214" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="1">
-        <v>12</v>
-      </c>
-      <c r="D215" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="1">
-        <v>13</v>
-      </c>
-      <c r="D216" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C217" s="1">
-        <v>14</v>
-      </c>
-      <c r="D217" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="1">
-        <v>19</v>
-      </c>
-      <c r="D218" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="1">
-        <v>21</v>
-      </c>
-      <c r="D219" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="1">
-        <v>22</v>
-      </c>
-      <c r="D220" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" s="1">
-        <v>25</v>
-      </c>
-      <c r="D221" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C222" s="1">
-        <v>26</v>
-      </c>
-      <c r="D222" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C223" s="1">
-        <v>27</v>
-      </c>
-      <c r="D223" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C224" s="1">
-        <v>28</v>
-      </c>
-      <c r="D224" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C225" s="1">
-        <v>3</v>
-      </c>
-      <c r="D225" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C226" s="1">
-        <v>6</v>
-      </c>
-      <c r="D226" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C227" s="1">
-        <v>7</v>
-      </c>
-      <c r="D227" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C228" s="1">
-        <v>9</v>
-      </c>
-      <c r="D228" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C229" s="1">
-        <v>10</v>
-      </c>
-      <c r="D229" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="1">
-        <v>11</v>
-      </c>
-      <c r="D230" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C231" s="1">
-        <v>12</v>
-      </c>
-      <c r="D231" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C232" s="1">
-        <v>13</v>
-      </c>
-      <c r="D232" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C233" s="1">
-        <v>14</v>
-      </c>
-      <c r="D233" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="1">
-        <v>15</v>
-      </c>
-      <c r="D234" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="1">
-        <v>21</v>
-      </c>
-      <c r="D235" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C236" s="1">
-        <v>26</v>
-      </c>
-      <c r="D236" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C237" s="1">
-        <v>27</v>
-      </c>
-      <c r="D237" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="1">
-        <v>4</v>
-      </c>
-      <c r="D238" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C239" s="1">
-        <v>5</v>
-      </c>
-      <c r="D239" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C240" s="1">
-        <v>6</v>
-      </c>
-      <c r="D240" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="1">
-        <v>7</v>
-      </c>
-      <c r="D241" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C242" s="1">
-        <v>10</v>
-      </c>
-      <c r="D242" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C243" s="1">
-        <v>12</v>
-      </c>
-      <c r="D243" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" s="1">
-        <v>14</v>
-      </c>
-      <c r="D244" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C245" s="1">
-        <v>15</v>
-      </c>
-      <c r="D245" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C246" s="1">
-        <v>18</v>
-      </c>
-      <c r="D246" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" s="1">
-        <v>19</v>
-      </c>
-      <c r="D247" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="1">
-        <v>20</v>
-      </c>
-      <c r="D248" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="1">
-        <v>22</v>
-      </c>
-      <c r="D249" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C250" s="1">
-        <v>23</v>
-      </c>
-      <c r="D250" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C251" s="1">
-        <v>24</v>
-      </c>
-      <c r="D251" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C252" s="1">
-        <v>5</v>
-      </c>
-      <c r="D252" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="1">
-        <v>15</v>
-      </c>
-      <c r="D253" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C254" s="1">
-        <v>16</v>
-      </c>
-      <c r="D254" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C255" s="1">
-        <v>17</v>
-      </c>
-      <c r="D255" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C256" s="1">
-        <v>18</v>
-      </c>
-      <c r="D256" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C257" s="1">
-        <v>19</v>
-      </c>
-      <c r="D257" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="1">
-        <v>26</v>
-      </c>
-      <c r="D258" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C259" s="1">
-        <v>27</v>
-      </c>
-      <c r="D259" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C260" s="1">
-        <v>5</v>
-      </c>
-      <c r="D260" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C261" s="1">
-        <v>6</v>
-      </c>
-      <c r="D261" s="1">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/gameData/shared/AllianceMap.xlsx
+++ b/gameData/shared/AllianceMap.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="21600" windowWidth="28800" windowHeight="17540" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="29400" windowHeight="17820" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buildingName" sheetId="30" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="111">
   <si>
     <t>INT_x</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -417,54 +417,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>36_40</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_needPalaceLevel</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>33_35</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>30_32</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>27_29</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>24_26</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_23</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>18_20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>15_17</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>12_14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>9_11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_8</t>
-  </si>
-  <si>
-    <t>1_8</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -485,6 +438,41 @@
   </si>
   <si>
     <t>INT_x</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_10</t>
+  </si>
+  <si>
+    <t>5_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_25</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>26_30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>31_35</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>36_40</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1883">
+  <cellStyleXfs count="1895">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2457,6 +2445,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2548,7 +2548,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1883">
+  <cellStyles count="1895">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3492,6 +3492,12 @@
     <cellStyle name="超链接" xfId="1877" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1879" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1893" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4428,6 +4434,12 @@
     <cellStyle name="访问过的超链接" xfId="1878" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1880" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1894" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1820"/>
@@ -16819,8 +16831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -16838,7 +16850,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>93</v>
@@ -16879,16 +16891,16 @@
         <v>24</v>
       </c>
       <c r="F2" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5">
         <v>20</v>
       </c>
       <c r="H2" s="5">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>96</v>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -16898,28 +16910,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5">
         <v>16</v>
       </c>
       <c r="F3" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -16929,28 +16941,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5">
         <v>12</v>
       </c>
       <c r="F4" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -16960,28 +16972,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <v>10</v>
       </c>
       <c r="F5" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -16991,28 +17003,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>101</v>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -17022,19 +17034,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -17042,8 +17054,8 @@
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>102</v>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -17053,16 +17065,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -17073,10 +17085,10 @@
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
@@ -17085,13 +17097,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -17105,10 +17117,10 @@
       <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="I9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
@@ -17117,10 +17129,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -17137,8 +17149,8 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>105</v>
+      <c r="I10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -17148,7 +17160,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -17168,8 +17180,8 @@
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>106</v>
+      <c r="I11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -17179,7 +17191,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -17199,8 +17211,8 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>108</v>
+      <c r="I12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -17210,7 +17222,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -17230,8 +17242,8 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>108</v>
+      <c r="I13" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -17241,7 +17253,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -17261,8 +17273,8 @@
       <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>107</v>
+      <c r="I14" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -17272,7 +17284,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -17292,8 +17304,8 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>107</v>
+      <c r="I15" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -17304,7 +17316,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -17324,8 +17336,8 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>107</v>
+      <c r="I16" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -17336,7 +17348,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -17356,8 +17368,8 @@
       <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>107</v>
+      <c r="I17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -17368,7 +17380,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -17388,8 +17400,8 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>107</v>
+      <c r="I18" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -17421,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
@@ -17473,7 +17485,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17491,7 +17503,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="9"/>
       <c r="E1" s="9"/>
@@ -17516,7 +17528,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="5"/>
@@ -17531,7 +17543,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="5"/>
@@ -17546,7 +17558,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="5"/>
@@ -17561,7 +17573,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="F6" s="5"/>
@@ -17576,7 +17588,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="F7" s="5"/>
@@ -17591,7 +17603,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
@@ -17607,7 +17619,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="5"/>
@@ -17623,7 +17635,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="5"/>
@@ -17638,7 +17650,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11" s="5"/>
@@ -17811,7 +17823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -17827,13 +17839,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E1" s="9"/>
     </row>
@@ -18130,10 +18142,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>24</v>
